--- a/PythonResources/Data/Consumption/Sympheny/futu_1692_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1692_coo.xlsx
@@ -527,7 +527,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.1153058694509197</v>
+        <v>0.1153058694509196</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.9894869557011404</v>
+        <v>0.9894869557011402</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>0.0532474908723025</v>
+        <v>0.0532474908723024</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>0.2047898358274656</v>
+        <v>0.2047898358274655</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2103,7 +2103,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>0.0310473596937056</v>
+        <v>0.0310473596937055</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2191,7 +2191,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>4.322534056320048</v>
+        <v>4.322534056320047</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>3.953616232853145</v>
+        <v>3.953616232853146</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>0.088302597019702</v>
+        <v>0.0883025970197019</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>7.370209094463244</v>
+        <v>7.370209094463243</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>1.342992173244842</v>
+        <v>1.342992173244841</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2671,7 +2671,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>0.1689513507937243</v>
+        <v>0.1689513507937242</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>7.247177872433212</v>
+        <v>7.247177872433211</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2847,7 +2847,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>0.2026348844801887</v>
+        <v>0.2026348844801886</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>3.701340682773461</v>
+        <v>3.70134068277346</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>9.420915073288276</v>
+        <v>9.420915073288274</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>17.48898492501192</v>
+        <v>17.48898492501191</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>6.626629255171679</v>
+        <v>6.626629255171678</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3511,7 +3511,7 @@
         <v>396</v>
       </c>
       <c r="B396">
-        <v>1.760914405086307</v>
+        <v>1.760914405086306</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>5.927478985341174</v>
+        <v>5.927478985341173</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3535,7 +3535,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>3.887382178115681</v>
+        <v>3.887382178115682</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>0.6022199545036521</v>
+        <v>0.602219954503652</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>7.51231924111013</v>
+        <v>7.512319241110129</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>0.4835466988185135</v>
+        <v>0.4835466988185134</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>0.079435732745003</v>
+        <v>0.0794357327450029</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4871,7 +4871,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>0.6957213386781677</v>
+        <v>0.6957213386781675</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>0.8055672946788265</v>
+        <v>0.8055672946788264</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>0.7849468163986142</v>
+        <v>0.7849468163986141</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>619</v>
       </c>
       <c r="B619">
-        <v>7.394299533841207</v>
+        <v>7.394299533841206</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>8.354048571249381</v>
+        <v>8.354048571249379</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>2.236132024986065</v>
+        <v>2.236132024986064</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5615,7 +5615,7 @@
         <v>659</v>
       </c>
       <c r="B659">
-        <v>0.8666051999008249</v>
+        <v>0.8666051999008247</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>9.40435655960391</v>
+        <v>9.404356559603908</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>0.5150459740538349</v>
+        <v>0.5150459740538348</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>6.775948949369634</v>
+        <v>6.775948949369633</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>1.324727986115467</v>
+        <v>1.324727986115466</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>9.227253730940861</v>
+        <v>9.227253730940856</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6399,7 +6399,7 @@
         <v>757</v>
       </c>
       <c r="B757">
-        <v>6.86263936260566</v>
+        <v>6.862639362605659</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>7.374312089004503</v>
+        <v>7.374312089004502</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6487,7 +6487,7 @@
         <v>768</v>
       </c>
       <c r="B768">
-        <v>0.2756315534347633</v>
+        <v>0.2756315534347632</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6503,7 +6503,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>0.1693698562369327</v>
+        <v>0.1693698562369326</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -7047,7 +7047,7 @@
         <v>838</v>
       </c>
       <c r="B838">
-        <v>0.7675999416202491</v>
+        <v>0.767599941620249</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>0.873973005812771</v>
+        <v>0.8739730058127709</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>0.3373599340238478</v>
+        <v>0.3373599340238477</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>8.540852051292122</v>
+        <v>8.54085205129212</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>7.778281208695301</v>
+        <v>7.7782812086953</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>926</v>
       </c>
       <c r="B926">
-        <v>0.4273972185213863</v>
+        <v>0.4273972185213862</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>0.7949903608935385</v>
+        <v>0.7949903608935384</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>0.0680760062154506</v>
+        <v>0.0680760062154505</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>0.8735421913859389</v>
+        <v>0.8735421913859388</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8703,7 +8703,7 @@
         <v>1045</v>
       </c>
       <c r="B1045">
-        <v>7.443799232271108</v>
+        <v>7.443799232271107</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
@@ -8887,7 +8887,7 @@
         <v>1068</v>
       </c>
       <c r="B1068">
-        <v>4.36596718424966</v>
+        <v>4.365967184249659</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
@@ -8919,7 +8919,7 @@
         <v>1072</v>
       </c>
       <c r="B1072">
-        <v>5.594403749902555</v>
+        <v>5.594403749902554</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>0.4969312531541771</v>
+        <v>0.496931253154177</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>0.4777614765153385</v>
+        <v>0.4777614765153384</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9191,7 +9191,7 @@
         <v>1106</v>
       </c>
       <c r="B1106">
-        <v>0.1927929728598634</v>
+        <v>0.1927929728598633</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
@@ -9527,7 +9527,7 @@
         <v>1148</v>
       </c>
       <c r="B1148">
-        <v>1.379036980289801</v>
+        <v>1.3790369802898</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
@@ -9575,7 +9575,7 @@
         <v>1154</v>
       </c>
       <c r="B1154">
-        <v>0.178606869233461</v>
+        <v>0.1786068692334609</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
@@ -9583,7 +9583,7 @@
         <v>1155</v>
       </c>
       <c r="B1155">
-        <v>0.1499840862426007</v>
+        <v>0.1499840862426006</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>5.506013524642293</v>
+        <v>5.506013524642292</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>0.1263144968761558</v>
+        <v>0.1263144968761557</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>1.051374766935257</v>
+        <v>1.051374766935256</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>0.7345415284592495</v>
+        <v>0.7345415284592494</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10511,7 +10511,7 @@
         <v>1271</v>
       </c>
       <c r="B1271">
-        <v>0.2669733557395912</v>
+        <v>0.2669733557395911</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -10687,7 +10687,7 @@
         <v>1293</v>
       </c>
       <c r="B1293">
-        <v>0.3115110684139172</v>
+        <v>0.3115110684139171</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10807,7 +10807,7 @@
         <v>1308</v>
       </c>
       <c r="B1308">
-        <v>6.417376533567478</v>
+        <v>6.417376533567477</v>
       </c>
     </row>
     <row r="1309" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>5.930907916493511</v>
+        <v>5.93090791649351</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10935,7 +10935,7 @@
         <v>1324</v>
       </c>
       <c r="B1324">
-        <v>0.1287718975353312</v>
+        <v>0.1287718975353311</v>
       </c>
     </row>
     <row r="1325" spans="1:2">
@@ -11071,7 +11071,7 @@
         <v>1341</v>
       </c>
       <c r="B1341">
-        <v>7.972411464704576</v>
+        <v>7.972411464704575</v>
       </c>
     </row>
     <row r="1342" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>0.2862125902145925</v>
+        <v>0.2862125902145924</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11239,7 +11239,7 @@
         <v>1362</v>
       </c>
       <c r="B1362">
-        <v>0.5697447527095884</v>
+        <v>0.5697447527095882</v>
       </c>
     </row>
     <row r="1363" spans="1:2">
@@ -11279,7 +11279,7 @@
         <v>1367</v>
       </c>
       <c r="B1367">
-        <v>4.180218759946099</v>
+        <v>4.180218759946098</v>
       </c>
     </row>
     <row r="1368" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>0.3904145841527112</v>
+        <v>0.3904145841527111</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11391,7 +11391,7 @@
         <v>1381</v>
       </c>
       <c r="B1381">
-        <v>3.585050094632639</v>
+        <v>3.585050094632638</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -11455,7 +11455,7 @@
         <v>1389</v>
       </c>
       <c r="B1389">
-        <v>8.614500803307719</v>
+        <v>8.614500803307717</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>6.375496682142772</v>
+        <v>6.375496682142771</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>5.824405901043979</v>
+        <v>5.824405901043978</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>5.314813979019632</v>
+        <v>5.314813979019631</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -11983,7 +11983,7 @@
         <v>1455</v>
       </c>
       <c r="B1455">
-        <v>9.172537368022786</v>
+        <v>9.172537368022784</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -12207,7 +12207,7 @@
         <v>1483</v>
       </c>
       <c r="B1483">
-        <v>5.543321467863882</v>
+        <v>5.543321467863881</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>4.369777107752257</v>
+        <v>4.369777107752256</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>14.73892352662932</v>
+        <v>14.73892352662931</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12815,7 +12815,7 @@
         <v>1559</v>
       </c>
       <c r="B1559">
-        <v>1.781886568612913</v>
+        <v>1.781886568612912</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>0.23491138411004</v>
+        <v>0.2349113841100399</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12991,7 +12991,7 @@
         <v>1581</v>
       </c>
       <c r="B1581">
-        <v>4.70631058144708</v>
+        <v>4.706310581447079</v>
       </c>
     </row>
     <row r="1582" spans="1:2">
@@ -13031,7 +13031,7 @@
         <v>1586</v>
       </c>
       <c r="B1586">
-        <v>0.2184953029504634</v>
+        <v>0.2184953029504633</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13055,7 +13055,7 @@
         <v>1589</v>
       </c>
       <c r="B1589">
-        <v>0.1571376572252855</v>
+        <v>0.1571376572252854</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>0.641743514777521</v>
+        <v>0.6417435147775209</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>0.6229312848058494</v>
+        <v>0.6229312848058493</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>7.9692756045909</v>
+        <v>7.969275604590899</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13351,7 +13351,7 @@
         <v>1626</v>
       </c>
       <c r="B1626">
-        <v>3.02968047636939</v>
+        <v>3.029680476369389</v>
       </c>
     </row>
     <row r="1627" spans="1:2">
@@ -13383,7 +13383,7 @@
         <v>1630</v>
       </c>
       <c r="B1630">
-        <v>5.033817467151133</v>
+        <v>5.033817467151132</v>
       </c>
     </row>
     <row r="1631" spans="1:2">
@@ -13431,7 +13431,7 @@
         <v>1636</v>
       </c>
       <c r="B1636">
-        <v>0.1772414512643378</v>
+        <v>0.1772414512643377</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -13583,7 +13583,7 @@
         <v>1655</v>
       </c>
       <c r="B1655">
-        <v>3.261118675600254</v>
+        <v>3.261118675600253</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -13671,7 +13671,7 @@
         <v>1666</v>
       </c>
       <c r="B1666">
-        <v>3.352674068078058</v>
+        <v>3.352674068078057</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>6.386926452650564</v>
+        <v>6.386926452650563</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13967,7 +13967,7 @@
         <v>1703</v>
       </c>
       <c r="B1703">
-        <v>4.69546695301661</v>
+        <v>4.695466953016609</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>0.741270439506914</v>
+        <v>0.7412704395069138</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14143,7 +14143,7 @@
         <v>1725</v>
       </c>
       <c r="B1725">
-        <v>9.5076934078359</v>
+        <v>9.507693407835898</v>
       </c>
     </row>
     <row r="1726" spans="1:2">
@@ -14151,7 +14151,7 @@
         <v>1726</v>
       </c>
       <c r="B1726">
-        <v>6.461894024340137</v>
+        <v>6.461894024340136</v>
       </c>
     </row>
     <row r="1727" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>0.6673520621357494</v>
+        <v>0.6673520621357493</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14351,7 +14351,7 @@
         <v>1751</v>
       </c>
       <c r="B1751">
-        <v>5.507537494043332</v>
+        <v>5.507537494043331</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -14375,7 +14375,7 @@
         <v>1754</v>
       </c>
       <c r="B1754">
-        <v>0.5294005935274676</v>
+        <v>0.5294005935274675</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -14535,7 +14535,7 @@
         <v>1774</v>
       </c>
       <c r="B1774">
-        <v>9.161605818280718</v>
+        <v>9.161605818280716</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14719,7 +14719,7 @@
         <v>1797</v>
       </c>
       <c r="B1797">
-        <v>7.611377252177665</v>
+        <v>7.611377252177664</v>
       </c>
     </row>
     <row r="1798" spans="1:2">
@@ -14751,7 +14751,7 @@
         <v>1801</v>
       </c>
       <c r="B1801">
-        <v>0.5407336505925018</v>
+        <v>0.5407336505925017</v>
       </c>
     </row>
     <row r="1802" spans="1:2">
@@ -14839,7 +14839,7 @@
         <v>1812</v>
       </c>
       <c r="B1812">
-        <v>0.3304903488776259</v>
+        <v>0.3304903488776258</v>
       </c>
     </row>
     <row r="1813" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>2.103611162724178</v>
+        <v>2.103611162724177</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>22.73067767988554</v>
+        <v>22.73067767988553</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15271,7 +15271,7 @@
         <v>1866</v>
       </c>
       <c r="B1866">
-        <v>36.87859414995039</v>
+        <v>36.87859414995038</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>0.2284819916638874</v>
+        <v>0.2284819916638873</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>0.2693768313276529</v>
+        <v>0.2693768313276528</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>20.81888737338599</v>
+        <v>20.81888737338598</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>9.537000511702034</v>
+        <v>9.537000511702033</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>0.4062638659235167</v>
+        <v>0.4062638659235166</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -16087,7 +16087,7 @@
         <v>1968</v>
       </c>
       <c r="B1968">
-        <v>0.7180885203488014</v>
+        <v>0.7180885203488013</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16095,7 +16095,7 @@
         <v>1969</v>
       </c>
       <c r="B1969">
-        <v>0.3737769412879066</v>
+        <v>0.3737769412879065</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>0.2174551938342543</v>
+        <v>0.2174551938342542</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>6.111322447893436</v>
+        <v>6.111322447893435</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16279,7 +16279,7 @@
         <v>1992</v>
       </c>
       <c r="B1992">
-        <v>2.206180164834876</v>
+        <v>2.206180164834875</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>0.4779695569527881</v>
+        <v>0.477969556952788</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>3.821910108078738</v>
+        <v>3.821910108078737</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16671,7 +16671,7 @@
         <v>2041</v>
       </c>
       <c r="B2041">
-        <v>0.7314994510779447</v>
+        <v>0.7314994510779446</v>
       </c>
     </row>
     <row r="2042" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>0.6824686663099016</v>
+        <v>0.6824686663099014</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16951,7 +16951,7 @@
         <v>2076</v>
       </c>
       <c r="B2076">
-        <v>0.8128911399349734</v>
+        <v>0.8128911399349733</v>
       </c>
     </row>
     <row r="2077" spans="1:2">
@@ -16975,7 +16975,7 @@
         <v>2079</v>
       </c>
       <c r="B2079">
-        <v>6.326671047101792</v>
+        <v>6.326671047101791</v>
       </c>
     </row>
     <row r="2080" spans="1:2">
@@ -17023,7 +17023,7 @@
         <v>2085</v>
       </c>
       <c r="B2085">
-        <v>8.794739492084446</v>
+        <v>8.794739492084444</v>
       </c>
     </row>
     <row r="2086" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>0.6124803715671857</v>
+        <v>0.6124803715671856</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17207,7 +17207,7 @@
         <v>2108</v>
       </c>
       <c r="B2108">
-        <v>5.208136120946902</v>
+        <v>5.208136120946901</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
@@ -17695,7 +17695,7 @@
         <v>2169</v>
       </c>
       <c r="B2169">
-        <v>0.752468683894164</v>
+        <v>0.7524686838941639</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -17831,7 +17831,7 @@
         <v>2186</v>
       </c>
       <c r="B2186">
-        <v>0.6688701701160152</v>
+        <v>0.6688701701160151</v>
       </c>
     </row>
     <row r="2187" spans="1:2">
@@ -17887,7 +17887,7 @@
         <v>2193</v>
       </c>
       <c r="B2193">
-        <v>0.7043493500563577</v>
+        <v>0.7043493500563576</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
@@ -17935,7 +17935,7 @@
         <v>2199</v>
       </c>
       <c r="B2199">
-        <v>20.71593151750426</v>
+        <v>20.71593151750425</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
@@ -17983,7 +17983,7 @@
         <v>2205</v>
       </c>
       <c r="B2205">
-        <v>9.068057542740016</v>
+        <v>9.068057542740014</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>0.5896970290216528</v>
+        <v>0.5896970290216527</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18199,7 +18199,7 @@
         <v>2232</v>
       </c>
       <c r="B2232">
-        <v>0.3039527663268411</v>
+        <v>0.303952766326841</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>0.178202724271147</v>
+        <v>0.1782027242711469</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18279,7 +18279,7 @@
         <v>2242</v>
       </c>
       <c r="B2242">
-        <v>0.8637799950881295</v>
+        <v>0.8637799950881294</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>6.227525114722659</v>
+        <v>6.227525114722658</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18319,7 +18319,7 @@
         <v>2247</v>
       </c>
       <c r="B2247">
-        <v>9.296711567103598</v>
+        <v>9.296711567103596</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
@@ -18359,7 +18359,7 @@
         <v>2252</v>
       </c>
       <c r="B2252">
-        <v>7.839650284190987</v>
+        <v>7.839650284190986</v>
       </c>
     </row>
     <row r="2253" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>5.213294171227341</v>
+        <v>5.21329417122734</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18823,7 +18823,7 @@
         <v>2310</v>
       </c>
       <c r="B2310">
-        <v>0.261604587382354</v>
+        <v>0.2616045873823539</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>25.90624891930055</v>
+        <v>25.90624891930054</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -19007,7 +19007,7 @@
         <v>2333</v>
       </c>
       <c r="B2333">
-        <v>0.2070066251639</v>
+        <v>0.2070066251638999</v>
       </c>
     </row>
     <row r="2334" spans="1:2">
@@ -19047,7 +19047,7 @@
         <v>2338</v>
       </c>
       <c r="B2338">
-        <v>6.285846251416267</v>
+        <v>6.285846251416266</v>
       </c>
     </row>
     <row r="2339" spans="1:2">
@@ -19063,7 +19063,7 @@
         <v>2340</v>
       </c>
       <c r="B2340">
-        <v>20.80883503675991</v>
+        <v>20.8088350367599</v>
       </c>
     </row>
     <row r="2341" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>0.8870996576344127</v>
+        <v>0.8870996576344126</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19263,7 +19263,7 @@
         <v>2365</v>
       </c>
       <c r="B2365">
-        <v>25.57244100626528</v>
+        <v>25.57244100626527</v>
       </c>
     </row>
     <row r="2366" spans="1:2">
@@ -19287,7 +19287,7 @@
         <v>2368</v>
       </c>
       <c r="B2368">
-        <v>40.47574807847974</v>
+        <v>40.47574807847973</v>
       </c>
     </row>
     <row r="2369" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>5.500972702777317</v>
+        <v>5.500972702777316</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>0.6941475472005563</v>
+        <v>0.6941475472005562</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19455,7 +19455,7 @@
         <v>2389</v>
       </c>
       <c r="B2389">
-        <v>40.76119927013589</v>
+        <v>40.76119927013588</v>
       </c>
     </row>
     <row r="2390" spans="1:2">
@@ -19463,7 +19463,7 @@
         <v>2390</v>
       </c>
       <c r="B2390">
-        <v>49.82354192762201</v>
+        <v>49.823541927622</v>
       </c>
     </row>
     <row r="2391" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>49.41558704180542</v>
+        <v>49.41558704180541</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19575,7 +19575,7 @@
         <v>2404</v>
       </c>
       <c r="B2404">
-        <v>0.630000158258361</v>
+        <v>0.6300001582583609</v>
       </c>
     </row>
     <row r="2405" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>0.5861215623499844</v>
+        <v>0.5861215623499842</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>0.3190400633971271</v>
+        <v>0.319040063397127</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19607,7 +19607,7 @@
         <v>2408</v>
       </c>
       <c r="B2408">
-        <v>0.1434834775340534</v>
+        <v>0.1434834775340533</v>
       </c>
     </row>
     <row r="2409" spans="1:2">
@@ -19695,7 +19695,7 @@
         <v>2419</v>
       </c>
       <c r="B2419">
-        <v>33.39075571884172</v>
+        <v>33.39075571884171</v>
       </c>
     </row>
     <row r="2420" spans="1:2">
@@ -19743,7 +19743,7 @@
         <v>2425</v>
       </c>
       <c r="B2425">
-        <v>0.9339177560605626</v>
+        <v>0.9339177560605624</v>
       </c>
     </row>
     <row r="2426" spans="1:2">
@@ -19791,7 +19791,7 @@
         <v>2431</v>
       </c>
       <c r="B2431">
-        <v>0.2036395320007198</v>
+        <v>0.2036395320007197</v>
       </c>
     </row>
     <row r="2432" spans="1:2">
@@ -20079,7 +20079,7 @@
         <v>2467</v>
       </c>
       <c r="B2467">
-        <v>46.78644675397449</v>
+        <v>46.78644675397448</v>
       </c>
     </row>
     <row r="2468" spans="1:2">
@@ -20239,7 +20239,7 @@
         <v>2487</v>
       </c>
       <c r="B2487">
-        <v>37.87210497101235</v>
+        <v>37.87210497101234</v>
       </c>
     </row>
     <row r="2488" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>22.21534156550343</v>
+        <v>22.21534156550342</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20327,7 +20327,7 @@
         <v>2498</v>
       </c>
       <c r="B2498">
-        <v>2.769538899612033</v>
+        <v>2.769538899612032</v>
       </c>
     </row>
     <row r="2499" spans="1:2">
@@ -20375,7 +20375,7 @@
         <v>2504</v>
       </c>
       <c r="B2504">
-        <v>1.183315348540595</v>
+        <v>1.183315348540594</v>
       </c>
     </row>
     <row r="2505" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>9.907002698011985</v>
+        <v>9.907002698011979</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20495,7 +20495,7 @@
         <v>2519</v>
       </c>
       <c r="B2519">
-        <v>20.88644024779743</v>
+        <v>20.88644024779742</v>
       </c>
     </row>
     <row r="2520" spans="1:2">
@@ -20727,7 +20727,7 @@
         <v>2548</v>
       </c>
       <c r="B2548">
-        <v>7.326658738118168</v>
+        <v>7.326658738118167</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -20735,7 +20735,7 @@
         <v>2549</v>
       </c>
       <c r="B2549">
-        <v>6.490644293232815</v>
+        <v>6.490644293232814</v>
       </c>
     </row>
     <row r="2550" spans="1:2">
@@ -20839,7 +20839,7 @@
         <v>2562</v>
       </c>
       <c r="B2562">
-        <v>65.66080778584245</v>
+        <v>65.66080778584244</v>
       </c>
     </row>
     <row r="2563" spans="1:2">
@@ -20911,7 +20911,7 @@
         <v>2571</v>
       </c>
       <c r="B2571">
-        <v>8.924921647457815</v>
+        <v>8.924921647457813</v>
       </c>
     </row>
     <row r="2572" spans="1:2">
@@ -20919,7 +20919,7 @@
         <v>2572</v>
       </c>
       <c r="B2572">
-        <v>6.443166784969677</v>
+        <v>6.443166784969676</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -21031,7 +21031,7 @@
         <v>2586</v>
       </c>
       <c r="B2586">
-        <v>66.79675113169382</v>
+        <v>66.79675113169381</v>
       </c>
     </row>
     <row r="2587" spans="1:2">
@@ -21039,7 +21039,7 @@
         <v>2587</v>
       </c>
       <c r="B2587">
-        <v>55.26030276582863</v>
+        <v>55.26030276582862</v>
       </c>
     </row>
     <row r="2588" spans="1:2">
@@ -21135,7 +21135,7 @@
         <v>2599</v>
       </c>
       <c r="B2599">
-        <v>0.6372272900717497</v>
+        <v>0.6372272900717496</v>
       </c>
     </row>
     <row r="2600" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>22.63375908740024</v>
+        <v>22.63375908740023</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21191,7 +21191,7 @@
         <v>2606</v>
       </c>
       <c r="B2606">
-        <v>47.39281073296481</v>
+        <v>47.3928107329648</v>
       </c>
     </row>
     <row r="2607" spans="1:2">
@@ -21223,7 +21223,7 @@
         <v>2610</v>
       </c>
       <c r="B2610">
-        <v>64.20102094227029</v>
+        <v>64.20102094227028</v>
       </c>
     </row>
     <row r="2611" spans="1:2">
@@ -21231,7 +21231,7 @@
         <v>2611</v>
       </c>
       <c r="B2611">
-        <v>52.97757244569541</v>
+        <v>52.9775724456954</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -21271,7 +21271,7 @@
         <v>2616</v>
       </c>
       <c r="B2616">
-        <v>7.759143669870715</v>
+        <v>7.759143669870714</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -21279,7 +21279,7 @@
         <v>2617</v>
       </c>
       <c r="B2617">
-        <v>4.80229134660867</v>
+        <v>4.802291346608669</v>
       </c>
     </row>
     <row r="2618" spans="1:2">
@@ -21319,7 +21319,7 @@
         <v>2622</v>
       </c>
       <c r="B2622">
-        <v>0.7334981955616151</v>
+        <v>0.733498195561615</v>
       </c>
     </row>
     <row r="2623" spans="1:2">
@@ -21335,7 +21335,7 @@
         <v>2624</v>
       </c>
       <c r="B2624">
-        <v>0.7247031336913881</v>
+        <v>0.7247031336913879</v>
       </c>
     </row>
     <row r="2625" spans="1:2">
@@ -21471,7 +21471,7 @@
         <v>2641</v>
       </c>
       <c r="B2641">
-        <v>1.691761362803776</v>
+        <v>1.691761362803775</v>
       </c>
     </row>
     <row r="2642" spans="1:2">
@@ -21479,7 +21479,7 @@
         <v>2642</v>
       </c>
       <c r="B2642">
-        <v>0.8373332645593297</v>
+        <v>0.8373332645593295</v>
       </c>
     </row>
     <row r="2643" spans="1:2">
@@ -21639,7 +21639,7 @@
         <v>2662</v>
       </c>
       <c r="B2662">
-        <v>7.946914284341039</v>
+        <v>7.946914284341038</v>
       </c>
     </row>
     <row r="2663" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>0.8963079496691522</v>
+        <v>0.8963079496691521</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21743,7 +21743,7 @@
         <v>2675</v>
       </c>
       <c r="B2675">
-        <v>5.738389551196874</v>
+        <v>5.738389551196873</v>
       </c>
     </row>
     <row r="2676" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>56.64594263661947</v>
+        <v>56.64594263661946</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21879,7 +21879,7 @@
         <v>2692</v>
       </c>
       <c r="B2692">
-        <v>0.427247752291669</v>
+        <v>0.4272477522916689</v>
       </c>
     </row>
     <row r="2693" spans="1:2">
@@ -21951,7 +21951,7 @@
         <v>2701</v>
       </c>
       <c r="B2701">
-        <v>8.158482267150665</v>
+        <v>8.158482267150664</v>
       </c>
     </row>
     <row r="2702" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>64.39181018843882</v>
+        <v>64.39181018843881</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>6.564879187325733</v>
+        <v>6.564879187325732</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>3.901273745348231</v>
+        <v>3.90127374534823</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>46.6794758248631</v>
+        <v>46.67947582486309</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>43.35751560163675</v>
+        <v>43.35751560163674</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22431,7 +22431,7 @@
         <v>2761</v>
       </c>
       <c r="B2761">
-        <v>20.91914697571204</v>
+        <v>20.91914697571203</v>
       </c>
     </row>
     <row r="2762" spans="1:2">
@@ -22599,7 +22599,7 @@
         <v>2782</v>
       </c>
       <c r="B2782">
-        <v>44.54181566886725</v>
+        <v>44.54181566886724</v>
       </c>
     </row>
     <row r="2783" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>34.5372496220849</v>
+        <v>34.53724962208489</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22663,7 +22663,7 @@
         <v>2790</v>
       </c>
       <c r="B2790">
-        <v>7.006332092861317</v>
+        <v>7.006332092861316</v>
       </c>
     </row>
     <row r="2791" spans="1:2">
@@ -22687,7 +22687,7 @@
         <v>2793</v>
       </c>
       <c r="B2793">
-        <v>6.569626938152047</v>
+        <v>6.569626938152046</v>
       </c>
     </row>
     <row r="2794" spans="1:2">
@@ -22783,7 +22783,7 @@
         <v>2805</v>
       </c>
       <c r="B2805">
-        <v>48.48303499678502</v>
+        <v>48.48303499678501</v>
       </c>
     </row>
     <row r="2806" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>29.7789482383793</v>
+        <v>29.77894823837929</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>0.5601935675596151</v>
+        <v>0.560193567559615</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -22879,7 +22879,7 @@
         <v>2817</v>
       </c>
       <c r="B2817">
-        <v>0.7646076863155168</v>
+        <v>0.7646076863155167</v>
       </c>
     </row>
     <row r="2818" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>1.243005126984751</v>
+        <v>1.24300512698475</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22999,7 +22999,7 @@
         <v>2832</v>
       </c>
       <c r="B2832">
-        <v>4.407553964635705</v>
+        <v>4.407553964635704</v>
       </c>
     </row>
     <row r="2833" spans="1:2">
@@ -23023,7 +23023,7 @@
         <v>2835</v>
       </c>
       <c r="B2835">
-        <v>0.6370045560823672</v>
+        <v>0.6370045560823671</v>
       </c>
     </row>
     <row r="2836" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>15.35827055263234</v>
+        <v>15.35827055263233</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23127,7 +23127,7 @@
         <v>2848</v>
       </c>
       <c r="B2848">
-        <v>21.12989435961341</v>
+        <v>21.1298943596134</v>
       </c>
     </row>
     <row r="2849" spans="1:2">
@@ -23135,7 +23135,7 @@
         <v>2849</v>
       </c>
       <c r="B2849">
-        <v>19.2394396247284</v>
+        <v>19.23943962472839</v>
       </c>
     </row>
     <row r="2850" spans="1:2">
@@ -23143,7 +23143,7 @@
         <v>2850</v>
       </c>
       <c r="B2850">
-        <v>52.42425432470279</v>
+        <v>52.42425432470278</v>
       </c>
     </row>
     <row r="2851" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>0.698364839446893</v>
+        <v>0.6983648394468929</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23279,7 +23279,7 @@
         <v>2867</v>
       </c>
       <c r="B2867">
-        <v>6.071171715596831</v>
+        <v>6.07117171559683</v>
       </c>
     </row>
     <row r="2868" spans="1:2">
@@ -23335,7 +23335,7 @@
         <v>2874</v>
       </c>
       <c r="B2874">
-        <v>52.32783395298321</v>
+        <v>52.3278339529832</v>
       </c>
     </row>
     <row r="2875" spans="1:2">
@@ -23575,7 +23575,7 @@
         <v>2904</v>
       </c>
       <c r="B2904">
-        <v>5.607533332434583</v>
+        <v>5.607533332434582</v>
       </c>
     </row>
     <row r="2905" spans="1:2">
@@ -23599,7 +23599,7 @@
         <v>2907</v>
       </c>
       <c r="B2907">
-        <v>0.7013981246970379</v>
+        <v>0.7013981246970378</v>
       </c>
     </row>
     <row r="2908" spans="1:2">
@@ -23895,7 +23895,7 @@
         <v>2944</v>
       </c>
       <c r="B2944">
-        <v>43.84137588646663</v>
+        <v>43.84137588646662</v>
       </c>
     </row>
     <row r="2945" spans="1:2">
@@ -23911,7 +23911,7 @@
         <v>2946</v>
       </c>
       <c r="B2946">
-        <v>75.69849085999353</v>
+        <v>75.69849085999351</v>
       </c>
     </row>
     <row r="2947" spans="1:2">
@@ -23967,7 +23967,7 @@
         <v>2953</v>
       </c>
       <c r="B2953">
-        <v>16.99835469918896</v>
+        <v>16.99835469918895</v>
       </c>
     </row>
     <row r="2954" spans="1:2">
@@ -24047,7 +24047,7 @@
         <v>2963</v>
       </c>
       <c r="B2963">
-        <v>28.83587494307096</v>
+        <v>28.83587494307095</v>
       </c>
     </row>
     <row r="2964" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>48.19025702916233</v>
+        <v>48.19025702916232</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>58.6965606941329</v>
+        <v>58.69656069413289</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24335,7 +24335,7 @@
         <v>2999</v>
       </c>
       <c r="B2999">
-        <v>56.96216628733506</v>
+        <v>56.96216628733505</v>
       </c>
     </row>
     <row r="3000" spans="1:2">
@@ -24351,7 +24351,7 @@
         <v>3001</v>
       </c>
       <c r="B3001">
-        <v>40.97514112835867</v>
+        <v>40.97514112835866</v>
       </c>
     </row>
     <row r="3002" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>49.17644107425776</v>
+        <v>49.17644107425775</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24503,7 +24503,7 @@
         <v>3020</v>
       </c>
       <c r="B3020">
-        <v>74.76857645432108</v>
+        <v>74.76857645432106</v>
       </c>
     </row>
     <row r="3021" spans="1:2">
@@ -24551,7 +24551,7 @@
         <v>3026</v>
       </c>
       <c r="B3026">
-        <v>28.15855846562072</v>
+        <v>28.15855846562071</v>
       </c>
     </row>
     <row r="3027" spans="1:2">
@@ -24687,7 +24687,7 @@
         <v>3043</v>
       </c>
       <c r="B3043">
-        <v>77.98884102713194</v>
+        <v>77.98884102713193</v>
       </c>
     </row>
     <row r="3044" spans="1:2">
@@ -24711,7 +24711,7 @@
         <v>3046</v>
       </c>
       <c r="B3046">
-        <v>50.23853051836648</v>
+        <v>50.23853051836647</v>
       </c>
     </row>
     <row r="3047" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>46.19034026133731</v>
+        <v>46.1903402613373</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24823,7 +24823,7 @@
         <v>3060</v>
       </c>
       <c r="B3060">
-        <v>55.15333183671724</v>
+        <v>55.15333183671723</v>
       </c>
     </row>
     <row r="3061" spans="1:2">
@@ -24895,7 +24895,7 @@
         <v>3069</v>
       </c>
       <c r="B3069">
-        <v>50.31502205945709</v>
+        <v>50.31502205945708</v>
       </c>
     </row>
     <row r="3070" spans="1:2">
@@ -24951,7 +24951,7 @@
         <v>3076</v>
       </c>
       <c r="B3076">
-        <v>6.859679345115181</v>
+        <v>6.85967934511518</v>
       </c>
     </row>
     <row r="3077" spans="1:2">
@@ -24959,7 +24959,7 @@
         <v>3077</v>
       </c>
       <c r="B3077">
-        <v>5.875810561225178</v>
+        <v>5.875810561225177</v>
       </c>
     </row>
     <row r="3078" spans="1:2">
@@ -25223,7 +25223,7 @@
         <v>3110</v>
       </c>
       <c r="B3110">
-        <v>34.52962977507971</v>
+        <v>34.5296297750797</v>
       </c>
     </row>
     <row r="3111" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>58.73260843188825</v>
+        <v>58.73260843188824</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25311,7 +25311,7 @@
         <v>3121</v>
       </c>
       <c r="B3121">
-        <v>6.915831756122694</v>
+        <v>6.915831756122693</v>
       </c>
     </row>
     <row r="3122" spans="1:2">
@@ -25375,7 +25375,7 @@
         <v>3129</v>
       </c>
       <c r="B3129">
-        <v>5.834868537124189</v>
+        <v>5.834868537124188</v>
       </c>
     </row>
     <row r="3130" spans="1:2">
@@ -25471,7 +25471,7 @@
         <v>3141</v>
       </c>
       <c r="B3141">
-        <v>34.0967638509769</v>
+        <v>34.09676385097689</v>
       </c>
     </row>
     <row r="3142" spans="1:2">
@@ -25559,7 +25559,7 @@
         <v>3152</v>
       </c>
       <c r="B3152">
-        <v>1.320285029169361</v>
+        <v>1.32028502916936</v>
       </c>
     </row>
     <row r="3153" spans="1:2">
@@ -25583,7 +25583,7 @@
         <v>3155</v>
       </c>
       <c r="B3155">
-        <v>6.002739628069407</v>
+        <v>6.002739628069406</v>
       </c>
     </row>
     <row r="3156" spans="1:2">
@@ -25647,7 +25647,7 @@
         <v>3163</v>
       </c>
       <c r="B3163">
-        <v>51.68073309961896</v>
+        <v>51.68073309961895</v>
       </c>
     </row>
     <row r="3164" spans="1:2">
@@ -25663,7 +25663,7 @@
         <v>3165</v>
       </c>
       <c r="B3165">
-        <v>29.82730495975842</v>
+        <v>29.82730495975841</v>
       </c>
     </row>
     <row r="3166" spans="1:2">
@@ -25695,7 +25695,7 @@
         <v>3169</v>
       </c>
       <c r="B3169">
-        <v>5.130120610455252</v>
+        <v>5.130120610455251</v>
       </c>
     </row>
     <row r="3170" spans="1:2">
@@ -25727,7 +25727,7 @@
         <v>3173</v>
       </c>
       <c r="B3173">
-        <v>0.72551494046848</v>
+        <v>0.7255149404684799</v>
       </c>
     </row>
     <row r="3174" spans="1:2">
@@ -25855,7 +25855,7 @@
         <v>3189</v>
       </c>
       <c r="B3189">
-        <v>29.29341744862905</v>
+        <v>29.29341744862904</v>
       </c>
     </row>
     <row r="3190" spans="1:2">
@@ -25895,7 +25895,7 @@
         <v>3194</v>
       </c>
       <c r="B3194">
-        <v>2.786141373952198</v>
+        <v>2.786141373952197</v>
       </c>
     </row>
     <row r="3195" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>5.65873284288872</v>
+        <v>5.658732842888719</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -25975,7 +25975,7 @@
         <v>3204</v>
       </c>
       <c r="B3204">
-        <v>5.932138814855889</v>
+        <v>5.932138814855888</v>
       </c>
     </row>
     <row r="3205" spans="1:2">
@@ -26047,7 +26047,7 @@
         <v>3213</v>
       </c>
       <c r="B3213">
-        <v>39.28881037190129</v>
+        <v>39.28881037190128</v>
       </c>
     </row>
     <row r="3214" spans="1:2">
@@ -26079,7 +26079,7 @@
         <v>3217</v>
       </c>
       <c r="B3217">
-        <v>8.953496073727296</v>
+        <v>8.953496073727294</v>
       </c>
     </row>
     <row r="3218" spans="1:2">
@@ -26119,7 +26119,7 @@
         <v>3222</v>
       </c>
       <c r="B3222">
-        <v>1.335410425474673</v>
+        <v>1.335410425474672</v>
       </c>
     </row>
     <row r="3223" spans="1:2">
@@ -26143,7 +26143,7 @@
         <v>3225</v>
       </c>
       <c r="B3225">
-        <v>5.059402568826269</v>
+        <v>5.059402568826268</v>
       </c>
     </row>
     <row r="3226" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>39.94587564058003</v>
+        <v>39.94587564058002</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26223,7 +26223,7 @@
         <v>3235</v>
       </c>
       <c r="B3235">
-        <v>72.89614558831374</v>
+        <v>72.89614558831373</v>
       </c>
     </row>
     <row r="3236" spans="1:2">
@@ -26279,7 +26279,7 @@
         <v>3242</v>
       </c>
       <c r="B3242">
-        <v>7.820131753016142</v>
+        <v>7.820131753016141</v>
       </c>
     </row>
     <row r="3243" spans="1:2">
@@ -26287,7 +26287,7 @@
         <v>3243</v>
       </c>
       <c r="B3243">
-        <v>4.643564072069686</v>
+        <v>4.643564072069685</v>
       </c>
     </row>
     <row r="3244" spans="1:2">
@@ -26335,7 +26335,7 @@
         <v>3249</v>
       </c>
       <c r="B3249">
-        <v>6.917355725523733</v>
+        <v>6.917355725523732</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26359,7 +26359,7 @@
         <v>3252</v>
       </c>
       <c r="B3252">
-        <v>11.24440307583917</v>
+        <v>11.24440307583916</v>
       </c>
     </row>
     <row r="3253" spans="1:2">
@@ -26375,7 +26375,7 @@
         <v>3254</v>
       </c>
       <c r="B3254">
-        <v>32.67009403477347</v>
+        <v>32.67009403477346</v>
       </c>
     </row>
     <row r="3255" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>72.01722554336837</v>
+        <v>72.01722554336835</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26615,7 +26615,7 @@
         <v>3284</v>
       </c>
       <c r="B3284">
-        <v>60.57924904649338</v>
+        <v>60.57924904649337</v>
       </c>
     </row>
     <row r="3285" spans="1:2">
@@ -26623,7 +26623,7 @@
         <v>3285</v>
       </c>
       <c r="B3285">
-        <v>50.64882997249236</v>
+        <v>50.64882997249235</v>
       </c>
     </row>
     <row r="3286" spans="1:2">
@@ -26799,7 +26799,7 @@
         <v>3307</v>
       </c>
       <c r="B3307">
-        <v>88.16954276814975</v>
+        <v>88.16954276814974</v>
       </c>
     </row>
     <row r="3308" spans="1:2">
@@ -26807,7 +26807,7 @@
         <v>3308</v>
       </c>
       <c r="B3308">
-        <v>71.88006829727486</v>
+        <v>71.88006829727485</v>
       </c>
     </row>
     <row r="3309" spans="1:2">
@@ -26823,7 +26823,7 @@
         <v>3310</v>
       </c>
       <c r="B3310">
-        <v>51.85364501242915</v>
+        <v>51.85364501242914</v>
       </c>
     </row>
     <row r="3311" spans="1:2">
@@ -26951,7 +26951,7 @@
         <v>3326</v>
       </c>
       <c r="B3326">
-        <v>51.15818743768578</v>
+        <v>51.15818743768577</v>
       </c>
     </row>
     <row r="3327" spans="1:2">
@@ -27047,7 +27047,7 @@
         <v>3338</v>
       </c>
       <c r="B3338">
-        <v>12.03859628350755</v>
+        <v>12.03859628350754</v>
       </c>
     </row>
     <row r="3339" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>46.1267438459478</v>
+        <v>46.12674384594779</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27183,7 +27183,7 @@
         <v>3355</v>
       </c>
       <c r="B3355">
-        <v>70.03547917994035</v>
+        <v>70.03547917994034</v>
       </c>
     </row>
     <row r="3356" spans="1:2">
@@ -27247,7 +27247,7 @@
         <v>3363</v>
       </c>
       <c r="B3363">
-        <v>5.833637638761811</v>
+        <v>5.83363763876181</v>
       </c>
     </row>
     <row r="3364" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>35.68872573298533</v>
+        <v>35.68872573298532</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27551,7 +27551,7 @@
         <v>3401</v>
       </c>
       <c r="B3401">
-        <v>77.0694771788513</v>
+        <v>77.06947717885129</v>
       </c>
     </row>
     <row r="3402" spans="1:2">
@@ -27599,7 +27599,7 @@
         <v>3407</v>
       </c>
       <c r="B3407">
-        <v>47.94554271188011</v>
+        <v>47.9455427118801</v>
       </c>
     </row>
     <row r="3408" spans="1:2">
@@ -27743,7 +27743,7 @@
         <v>3425</v>
       </c>
       <c r="B3425">
-        <v>55.43321467863882</v>
+        <v>55.43321467863881</v>
       </c>
     </row>
     <row r="3426" spans="1:2">
@@ -27799,7 +27799,7 @@
         <v>3432</v>
       </c>
       <c r="B3432">
-        <v>16.70812644960263</v>
+        <v>16.70812644960262</v>
       </c>
     </row>
     <row r="3433" spans="1:2">
@@ -27855,7 +27855,7 @@
         <v>3439</v>
       </c>
       <c r="B3439">
-        <v>0.7374575852939298</v>
+        <v>0.7374575852939297</v>
       </c>
     </row>
     <row r="3440" spans="1:2">
@@ -27911,7 +27911,7 @@
         <v>3446</v>
       </c>
       <c r="B3446">
-        <v>24.19823090598223</v>
+        <v>24.19823090598222</v>
       </c>
     </row>
     <row r="3447" spans="1:2">
@@ -27943,7 +27943,7 @@
         <v>3450</v>
       </c>
       <c r="B3450">
-        <v>73.77506563325912</v>
+        <v>73.7750656332591</v>
       </c>
     </row>
     <row r="3451" spans="1:2">
@@ -28047,7 +28047,7 @@
         <v>3463</v>
       </c>
       <c r="B3463">
-        <v>0.393820069621956</v>
+        <v>0.3938200696219559</v>
       </c>
     </row>
     <row r="3464" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>5.386294005349133</v>
+        <v>5.386294005349132</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28095,7 +28095,7 @@
         <v>3469</v>
       </c>
       <c r="B3469">
-        <v>6.020353197492954</v>
+        <v>6.020353197492953</v>
       </c>
     </row>
     <row r="3470" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>49.35462826576386</v>
+        <v>49.35462826576385</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28247,7 +28247,7 @@
         <v>3488</v>
       </c>
       <c r="B3488">
-        <v>0.9973940123242234</v>
+        <v>0.9973940123242232</v>
       </c>
     </row>
     <row r="3489" spans="1:2">
@@ -28287,7 +28287,7 @@
         <v>3493</v>
       </c>
       <c r="B3493">
-        <v>29.57643615066431</v>
+        <v>29.5764361506643</v>
       </c>
     </row>
     <row r="3494" spans="1:2">
@@ -28311,7 +28311,7 @@
         <v>3496</v>
       </c>
       <c r="B3496">
-        <v>39.96140840562908</v>
+        <v>39.96140840562907</v>
       </c>
     </row>
     <row r="3497" spans="1:2">
@@ -28319,7 +28319,7 @@
         <v>3497</v>
       </c>
       <c r="B3497">
-        <v>44.5702435596174</v>
+        <v>44.57024355961739</v>
       </c>
     </row>
     <row r="3498" spans="1:2">
@@ -28343,7 +28343,7 @@
         <v>3500</v>
       </c>
       <c r="B3500">
-        <v>77.7139403928676</v>
+        <v>77.71394039286758</v>
       </c>
     </row>
     <row r="3501" spans="1:2">
@@ -28367,7 +28367,7 @@
         <v>3503</v>
       </c>
       <c r="B3503">
-        <v>48.89069681156295</v>
+        <v>48.89069681156294</v>
       </c>
     </row>
     <row r="3504" spans="1:2">
@@ -28543,7 +28543,7 @@
         <v>3525</v>
       </c>
       <c r="B3525">
-        <v>81.33160929410325</v>
+        <v>81.33160929410323</v>
       </c>
     </row>
     <row r="3526" spans="1:2">
@@ -28591,7 +28591,7 @@
         <v>3531</v>
       </c>
       <c r="B3531">
-        <v>31.96115519225168</v>
+        <v>31.96115519225167</v>
       </c>
     </row>
     <row r="3532" spans="1:2">
@@ -28743,7 +28743,7 @@
         <v>3550</v>
       </c>
       <c r="B3550">
-        <v>70.22890606545684</v>
+        <v>70.22890606545683</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -28775,7 +28775,7 @@
         <v>3554</v>
       </c>
       <c r="B3554">
-        <v>43.85397794112907</v>
+        <v>43.85397794112906</v>
       </c>
     </row>
     <row r="3555" spans="1:2">
@@ -28783,7 +28783,7 @@
         <v>3555</v>
       </c>
       <c r="B3555">
-        <v>40.2008474442154</v>
+        <v>40.20084744421539</v>
       </c>
     </row>
     <row r="3556" spans="1:2">
@@ -28879,7 +28879,7 @@
         <v>3567</v>
       </c>
       <c r="B3567">
-        <v>77.31389842509486</v>
+        <v>77.31389842509485</v>
       </c>
     </row>
     <row r="3568" spans="1:2">
@@ -28959,7 +28959,7 @@
         <v>3577</v>
       </c>
       <c r="B3577">
-        <v>36.7587280951379</v>
+        <v>36.75872809513789</v>
       </c>
     </row>
     <row r="3578" spans="1:2">
@@ -29063,7 +29063,7 @@
         <v>3590</v>
       </c>
       <c r="B3590">
-        <v>65.10514509654054</v>
+        <v>65.10514509654053</v>
       </c>
     </row>
     <row r="3591" spans="1:2">
@@ -29087,7 +29087,7 @@
         <v>3593</v>
       </c>
       <c r="B3593">
-        <v>67.87701098019954</v>
+        <v>67.87701098019953</v>
       </c>
     </row>
     <row r="3594" spans="1:2">
@@ -29159,7 +29159,7 @@
         <v>3602</v>
       </c>
       <c r="B3602">
-        <v>25.94560835979277</v>
+        <v>25.94560835979276</v>
       </c>
     </row>
     <row r="3603" spans="1:2">
@@ -29343,7 +29343,7 @@
         <v>3625</v>
       </c>
       <c r="B3625">
-        <v>27.11765805760722</v>
+        <v>27.11765805760721</v>
       </c>
     </row>
     <row r="3626" spans="1:2">
@@ -29359,7 +29359,7 @@
         <v>3627</v>
       </c>
       <c r="B3627">
-        <v>17.66866677881519</v>
+        <v>17.66866677881518</v>
       </c>
     </row>
     <row r="3628" spans="1:2">
@@ -29591,7 +29591,7 @@
         <v>3656</v>
       </c>
       <c r="B3656">
-        <v>5.304175500316224</v>
+        <v>5.304175500316223</v>
       </c>
     </row>
     <row r="3657" spans="1:2">
@@ -29663,7 +29663,7 @@
         <v>3665</v>
       </c>
       <c r="B3665">
-        <v>58.76807002756627</v>
+        <v>58.76807002756626</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -29687,7 +29687,7 @@
         <v>3668</v>
       </c>
       <c r="B3668">
-        <v>95.72550028691656</v>
+        <v>95.72550028691654</v>
       </c>
     </row>
     <row r="3669" spans="1:2">
@@ -29703,7 +29703,7 @@
         <v>3670</v>
       </c>
       <c r="B3670">
-        <v>73.09484775252614</v>
+        <v>73.09484775252612</v>
       </c>
     </row>
     <row r="3671" spans="1:2">
@@ -29711,7 +29711,7 @@
         <v>3671</v>
       </c>
       <c r="B3671">
-        <v>61.02061403071737</v>
+        <v>61.02061403071736</v>
       </c>
     </row>
     <row r="3672" spans="1:2">
@@ -29759,7 +29759,7 @@
         <v>3677</v>
       </c>
       <c r="B3677">
-        <v>33.93117871413324</v>
+        <v>33.93117871413323</v>
       </c>
     </row>
     <row r="3678" spans="1:2">
@@ -29831,7 +29831,7 @@
         <v>3686</v>
       </c>
       <c r="B3686">
-        <v>87.49928930273126</v>
+        <v>87.49928930273124</v>
       </c>
     </row>
     <row r="3687" spans="1:2">
@@ -29887,7 +29887,7 @@
         <v>3693</v>
       </c>
       <c r="B3693">
-        <v>88.67421109672459</v>
+        <v>88.67421109672458</v>
       </c>
     </row>
     <row r="3694" spans="1:2">
@@ -30023,7 +30023,7 @@
         <v>3710</v>
       </c>
       <c r="B3710">
-        <v>64.19574566357439</v>
+        <v>64.19574566357437</v>
       </c>
     </row>
     <row r="3711" spans="1:2">
@@ -30143,7 +30143,7 @@
         <v>3725</v>
       </c>
       <c r="B3725">
-        <v>41.73683275783951</v>
+        <v>41.7368327578395</v>
       </c>
     </row>
     <row r="3726" spans="1:2">
@@ -30183,7 +30183,7 @@
         <v>3730</v>
       </c>
       <c r="B3730">
-        <v>34.69521491192337</v>
+        <v>34.69521491192336</v>
       </c>
     </row>
     <row r="3731" spans="1:2">
@@ -30231,7 +30231,7 @@
         <v>3736</v>
       </c>
       <c r="B3736">
-        <v>61.16011584512017</v>
+        <v>61.16011584512016</v>
       </c>
     </row>
     <row r="3737" spans="1:2">
@@ -30367,7 +30367,7 @@
         <v>3753</v>
       </c>
       <c r="B3753">
-        <v>16.62041028773129</v>
+        <v>16.62041028773128</v>
       </c>
     </row>
     <row r="3754" spans="1:2">
@@ -30415,7 +30415,7 @@
         <v>3759</v>
       </c>
       <c r="B3759">
-        <v>56.42438093139149</v>
+        <v>56.42438093139148</v>
       </c>
     </row>
     <row r="3760" spans="1:2">
@@ -30575,7 +30575,7 @@
         <v>3779</v>
       </c>
       <c r="B3779">
-        <v>60.69178832533934</v>
+        <v>60.69178832533933</v>
       </c>
     </row>
     <row r="3780" spans="1:2">
@@ -30583,7 +30583,7 @@
         <v>3780</v>
       </c>
       <c r="B3780">
-        <v>68.21140503531214</v>
+        <v>68.21140503531213</v>
       </c>
     </row>
     <row r="3781" spans="1:2">
@@ -30615,7 +30615,7 @@
         <v>3784</v>
       </c>
       <c r="B3784">
-        <v>91.45545525362076</v>
+        <v>91.45545525362074</v>
       </c>
     </row>
     <row r="3785" spans="1:2">
@@ -30727,7 +30727,7 @@
         <v>3798</v>
       </c>
       <c r="B3798">
-        <v>25.44378282029295</v>
+        <v>25.44378282029294</v>
       </c>
     </row>
     <row r="3799" spans="1:2">
@@ -30743,7 +30743,7 @@
         <v>3800</v>
       </c>
       <c r="B3800">
-        <v>6.330393049292791</v>
+        <v>6.33039304929279</v>
       </c>
     </row>
     <row r="3801" spans="1:2">
@@ -30815,7 +30815,7 @@
         <v>3809</v>
       </c>
       <c r="B3809">
-        <v>58.70212904386747</v>
+        <v>58.70212904386746</v>
       </c>
     </row>
     <row r="3810" spans="1:2">
@@ -30975,7 +30975,7 @@
         <v>3829</v>
       </c>
       <c r="B3829">
-        <v>37.38560704683452</v>
+        <v>37.38560704683451</v>
       </c>
     </row>
     <row r="3830" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>62.69434273251231</v>
+        <v>62.6943427325123</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31047,7 +31047,7 @@
         <v>3838</v>
       </c>
       <c r="B3838">
-        <v>62.10292537649372</v>
+        <v>62.10292537649371</v>
       </c>
     </row>
     <row r="3839" spans="1:2">
@@ -31079,7 +31079,7 @@
         <v>3842</v>
       </c>
       <c r="B3842">
-        <v>30.68717538719081</v>
+        <v>30.6871753871908</v>
       </c>
     </row>
     <row r="3843" spans="1:2">
@@ -31199,7 +31199,7 @@
         <v>3857</v>
       </c>
       <c r="B3857">
-        <v>56.83438731447871</v>
+        <v>56.8343873144787</v>
       </c>
     </row>
     <row r="3858" spans="1:2">
@@ -31215,7 +31215,7 @@
         <v>3859</v>
       </c>
       <c r="B3859">
-        <v>98.09204892410692</v>
+        <v>98.0920489241069</v>
       </c>
     </row>
     <row r="3860" spans="1:2">
@@ -31431,7 +31431,7 @@
         <v>3886</v>
       </c>
       <c r="B3886">
-        <v>63.50175344402432</v>
+        <v>63.50175344402431</v>
       </c>
     </row>
     <row r="3887" spans="1:2">
@@ -31455,7 +31455,7 @@
         <v>3889</v>
       </c>
       <c r="B3889">
-        <v>38.85828901610778</v>
+        <v>38.85828901610777</v>
       </c>
     </row>
     <row r="3890" spans="1:2">
@@ -31463,7 +31463,7 @@
         <v>3890</v>
       </c>
       <c r="B3890">
-        <v>32.38728048246527</v>
+        <v>32.38728048246526</v>
       </c>
     </row>
     <row r="3891" spans="1:2">
@@ -31511,7 +31511,7 @@
         <v>3896</v>
       </c>
       <c r="B3896">
-        <v>4.035002060289402</v>
+        <v>4.035002060289401</v>
       </c>
     </row>
     <row r="3897" spans="1:2">
@@ -31527,7 +31527,7 @@
         <v>3898</v>
       </c>
       <c r="B3898">
-        <v>25.82512685579909</v>
+        <v>25.82512685579908</v>
       </c>
     </row>
     <row r="3899" spans="1:2">
@@ -31567,7 +31567,7 @@
         <v>3903</v>
       </c>
       <c r="B3903">
-        <v>45.16605698121591</v>
+        <v>45.1660569812159</v>
       </c>
     </row>
     <row r="3904" spans="1:2">
@@ -31607,7 +31607,7 @@
         <v>3908</v>
       </c>
       <c r="B3908">
-        <v>86.93161070084423</v>
+        <v>86.93161070084422</v>
       </c>
     </row>
     <row r="3909" spans="1:2">
@@ -31703,7 +31703,7 @@
         <v>3920</v>
       </c>
       <c r="B3920">
-        <v>6.00256378544621</v>
+        <v>6.002563785446209</v>
       </c>
     </row>
     <row r="3921" spans="1:2">
@@ -31871,7 +31871,7 @@
         <v>3941</v>
       </c>
       <c r="B3941">
-        <v>7.221592770758075</v>
+        <v>7.221592770758074</v>
       </c>
     </row>
     <row r="3942" spans="1:2">
@@ -31927,7 +31927,7 @@
         <v>3948</v>
       </c>
       <c r="B3948">
-        <v>30.31028603147232</v>
+        <v>30.31028603147231</v>
       </c>
     </row>
     <row r="3949" spans="1:2">
@@ -31967,7 +31967,7 @@
         <v>3953</v>
       </c>
       <c r="B3953">
-        <v>50.7455434152506</v>
+        <v>50.74554341525059</v>
       </c>
     </row>
     <row r="3954" spans="1:2">
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="B3961">
-        <v>19.22018485748835</v>
+        <v>19.22018485748834</v>
       </c>
     </row>
     <row r="3962" spans="1:2">
@@ -32071,7 +32071,7 @@
         <v>3966</v>
       </c>
       <c r="B3966">
-        <v>7.264205299779436</v>
+        <v>7.264205299779435</v>
       </c>
     </row>
     <row r="3967" spans="1:2">
@@ -32231,7 +32231,7 @@
         <v>3986</v>
       </c>
       <c r="B3986">
-        <v>13.97497525015079</v>
+        <v>13.97497525015078</v>
       </c>
     </row>
     <row r="3987" spans="1:2">
@@ -32263,7 +32263,7 @@
         <v>3990</v>
       </c>
       <c r="B3990">
-        <v>7.144778851524937</v>
+        <v>7.144778851524936</v>
       </c>
     </row>
     <row r="3991" spans="1:2">
@@ -32279,7 +32279,7 @@
         <v>3992</v>
       </c>
       <c r="B3992">
-        <v>6.034361993140966</v>
+        <v>6.034361993140965</v>
       </c>
     </row>
     <row r="3993" spans="1:2">
@@ -32487,7 +32487,7 @@
         <v>4018</v>
       </c>
       <c r="B4018">
-        <v>7.849263014259079</v>
+        <v>7.849263014259078</v>
       </c>
     </row>
     <row r="4019" spans="1:2">
@@ -32735,7 +32735,7 @@
         <v>4049</v>
       </c>
       <c r="B4049">
-        <v>72.10866370743071</v>
+        <v>72.10866370743069</v>
       </c>
     </row>
     <row r="4050" spans="1:2">
@@ -32807,7 +32807,7 @@
         <v>4058</v>
       </c>
       <c r="B4058">
-        <v>33.46724725993233</v>
+        <v>33.46724725993232</v>
       </c>
     </row>
     <row r="4059" spans="1:2">
@@ -32847,7 +32847,7 @@
         <v>4063</v>
       </c>
       <c r="B4063">
-        <v>4.504150178978484</v>
+        <v>4.504150178978483</v>
       </c>
     </row>
     <row r="4064" spans="1:2">
@@ -32935,7 +32935,7 @@
         <v>4074</v>
       </c>
       <c r="B4074">
-        <v>120.4079431629751</v>
+        <v>120.407943162975</v>
       </c>
     </row>
     <row r="4075" spans="1:2">
@@ -33023,7 +33023,7 @@
         <v>4085</v>
       </c>
       <c r="B4085">
-        <v>30.68864074238412</v>
+        <v>30.68864074238411</v>
       </c>
     </row>
     <row r="4086" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>34.96777097787842</v>
+        <v>34.96777097787841</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33071,7 +33071,7 @@
         <v>4091</v>
       </c>
       <c r="B4091">
-        <v>32.16044349854139</v>
+        <v>32.16044349854138</v>
       </c>
     </row>
     <row r="4092" spans="1:2">
@@ -33087,7 +33087,7 @@
         <v>4093</v>
       </c>
       <c r="B4093">
-        <v>68.66713050043053</v>
+        <v>68.66713050043052</v>
       </c>
     </row>
     <row r="4094" spans="1:2">
@@ -33199,7 +33199,7 @@
         <v>4107</v>
       </c>
       <c r="B4107">
-        <v>33.07746277851274</v>
+        <v>33.07746277851273</v>
       </c>
     </row>
     <row r="4108" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>4.609245453442442</v>
+        <v>4.609245453442441</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33295,7 +33295,7 @@
         <v>4119</v>
       </c>
       <c r="B4119">
-        <v>59.57841144946489</v>
+        <v>59.57841144946488</v>
       </c>
     </row>
     <row r="4120" spans="1:2">
@@ -33631,7 +33631,7 @@
         <v>4161</v>
       </c>
       <c r="B4161">
-        <v>21.83179949720733</v>
+        <v>21.83179949720732</v>
       </c>
     </row>
     <row r="4162" spans="1:2">
@@ -33703,7 +33703,7 @@
         <v>4170</v>
       </c>
       <c r="B4170">
-        <v>88.04967671333726</v>
+        <v>88.04967671333725</v>
       </c>
     </row>
     <row r="4171" spans="1:2">
@@ -34127,7 +34127,7 @@
         <v>4223</v>
       </c>
       <c r="B4223">
-        <v>45.07432574611491</v>
+        <v>45.0743257461149</v>
       </c>
     </row>
     <row r="4224" spans="1:2">
@@ -34175,7 +34175,7 @@
         <v>4229</v>
       </c>
       <c r="B4229">
-        <v>13.27359764042646</v>
+        <v>13.27359764042645</v>
       </c>
     </row>
     <row r="4230" spans="1:2">
@@ -34247,7 +34247,7 @@
         <v>4238</v>
       </c>
       <c r="B4238">
-        <v>47.08713763964103</v>
+        <v>47.08713763964102</v>
       </c>
     </row>
     <row r="4239" spans="1:2">
@@ -34271,7 +34271,7 @@
         <v>4241</v>
       </c>
       <c r="B4241">
-        <v>54.99009126818287</v>
+        <v>54.99009126818286</v>
       </c>
     </row>
     <row r="4242" spans="1:2">
@@ -34295,7 +34295,7 @@
         <v>4244</v>
       </c>
       <c r="B4244">
-        <v>96.5182574464955</v>
+        <v>96.51825744649548</v>
       </c>
     </row>
     <row r="4245" spans="1:2">
@@ -34319,7 +34319,7 @@
         <v>4247</v>
       </c>
       <c r="B4247">
-        <v>60.74483418333704</v>
+        <v>60.74483418333703</v>
       </c>
     </row>
     <row r="4248" spans="1:2">
@@ -34351,7 +34351,7 @@
         <v>4251</v>
       </c>
       <c r="B4251">
-        <v>38.18539791134133</v>
+        <v>38.18539791134132</v>
       </c>
     </row>
     <row r="4252" spans="1:2">
@@ -34367,7 +34367,7 @@
         <v>4253</v>
       </c>
       <c r="B4253">
-        <v>34.52962977507971</v>
+        <v>34.5296297750797</v>
       </c>
     </row>
     <row r="4254" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>59.54236371170954</v>
+        <v>59.54236371170953</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34583,7 +34583,7 @@
         <v>4280</v>
       </c>
       <c r="B4280">
-        <v>23.23997653087123</v>
+        <v>23.23997653087122</v>
       </c>
     </row>
     <row r="4281" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>72.43983398111803</v>
+        <v>72.43983398111801</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34743,7 +34743,7 @@
         <v>4300</v>
       </c>
       <c r="B4300">
-        <v>47.05167604396301</v>
+        <v>47.051676043963</v>
       </c>
     </row>
     <row r="4301" spans="1:2">
@@ -34759,7 +34759,7 @@
         <v>4302</v>
       </c>
       <c r="B4302">
-        <v>47.87667101779469</v>
+        <v>47.87667101779468</v>
       </c>
     </row>
     <row r="4303" spans="1:2">
@@ -34767,7 +34767,7 @@
         <v>4303</v>
       </c>
       <c r="B4303">
-        <v>5.396199806455886</v>
+        <v>5.396199806455885</v>
       </c>
     </row>
     <row r="4304" spans="1:2">
@@ -34847,7 +34847,7 @@
         <v>4313</v>
       </c>
       <c r="B4313">
-        <v>80.78854865946377</v>
+        <v>80.78854865946376</v>
       </c>
     </row>
     <row r="4314" spans="1:2">
@@ -34911,7 +34911,7 @@
         <v>4321</v>
       </c>
       <c r="B4321">
-        <v>59.20357359101703</v>
+        <v>59.20357359101702</v>
       </c>
     </row>
     <row r="4322" spans="1:2">
@@ -35135,7 +35135,7 @@
         <v>4349</v>
       </c>
       <c r="B4349">
-        <v>34.75881132731288</v>
+        <v>34.75881132731287</v>
       </c>
     </row>
     <row r="4350" spans="1:2">
@@ -35143,7 +35143,7 @@
         <v>4350</v>
       </c>
       <c r="B4350">
-        <v>38.54997828343604</v>
+        <v>38.54997828343603</v>
       </c>
     </row>
     <row r="4351" spans="1:2">
@@ -35175,7 +35175,7 @@
         <v>4354</v>
       </c>
       <c r="B4354">
-        <v>47.22224338846391</v>
+        <v>47.2222433884639</v>
       </c>
     </row>
     <row r="4355" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>63.43522631824819</v>
+        <v>63.43522631824818</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35263,7 +35263,7 @@
         <v>4365</v>
       </c>
       <c r="B4365">
-        <v>88.90280650688044</v>
+        <v>88.90280650688042</v>
       </c>
     </row>
     <row r="4366" spans="1:2">
@@ -35271,7 +35271,7 @@
         <v>4366</v>
       </c>
       <c r="B4366">
-        <v>77.63715578073833</v>
+        <v>77.63715578073831</v>
       </c>
     </row>
     <row r="4367" spans="1:2">
@@ -35351,7 +35351,7 @@
         <v>4376</v>
       </c>
       <c r="B4376">
-        <v>8.939956191741143</v>
+        <v>8.939956191741141</v>
       </c>
     </row>
     <row r="4377" spans="1:2">
@@ -35407,7 +35407,7 @@
         <v>4383</v>
       </c>
       <c r="B4383">
-        <v>79.31352212188122</v>
+        <v>79.31352212188121</v>
       </c>
     </row>
     <row r="4384" spans="1:2">
@@ -35455,7 +35455,7 @@
         <v>4389</v>
       </c>
       <c r="B4389">
-        <v>99.12717583265881</v>
+        <v>99.12717583265878</v>
       </c>
     </row>
     <row r="4390" spans="1:2">
@@ -35495,7 +35495,7 @@
         <v>4394</v>
       </c>
       <c r="B4394">
-        <v>57.15324860454226</v>
+        <v>57.15324860454225</v>
       </c>
     </row>
     <row r="4395" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>56.88772624351508</v>
+        <v>56.88772624351507</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35583,7 +35583,7 @@
         <v>4405</v>
       </c>
       <c r="B4405">
-        <v>62.91326679839234</v>
+        <v>62.91326679839233</v>
       </c>
     </row>
     <row r="4406" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>63.1758584490329</v>
+        <v>63.17585844903289</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35663,7 +35663,7 @@
         <v>4415</v>
       </c>
       <c r="B4415">
-        <v>76.1899709918286</v>
+        <v>76.18997099182859</v>
       </c>
     </row>
     <row r="4416" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>38.66456905955263</v>
+        <v>38.66456905955262</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35855,7 +35855,7 @@
         <v>4439</v>
       </c>
       <c r="B4439">
-        <v>57.84079326124177</v>
+        <v>57.84079326124176</v>
       </c>
     </row>
     <row r="4440" spans="1:2">
@@ -36039,7 +36039,7 @@
         <v>4462</v>
       </c>
       <c r="B4462">
-        <v>68.53730003030356</v>
+        <v>68.53730003030354</v>
       </c>
     </row>
     <row r="4463" spans="1:2">
@@ -36087,7 +36087,7 @@
         <v>4468</v>
       </c>
       <c r="B4468">
-        <v>26.56208328961691</v>
+        <v>26.5620832896169</v>
       </c>
     </row>
     <row r="4469" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>4.018443546605036</v>
+        <v>4.018443546605035</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36223,7 +36223,7 @@
         <v>4485</v>
       </c>
       <c r="B4485">
-        <v>86.72968475520656</v>
+        <v>86.72968475520655</v>
       </c>
     </row>
     <row r="4486" spans="1:2">
@@ -36351,7 +36351,7 @@
         <v>4501</v>
       </c>
       <c r="B4501">
-        <v>47.09739512599418</v>
+        <v>47.09739512599417</v>
       </c>
     </row>
     <row r="4502" spans="1:2">
@@ -36535,7 +36535,7 @@
         <v>4524</v>
       </c>
       <c r="B4524">
-        <v>59.58573822543142</v>
+        <v>59.58573822543141</v>
       </c>
     </row>
     <row r="4525" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>56.36312908431127</v>
+        <v>56.36312908431126</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36615,7 +36615,7 @@
         <v>4534</v>
       </c>
       <c r="B4534">
-        <v>75.19909781011459</v>
+        <v>75.19909781011458</v>
       </c>
     </row>
     <row r="4535" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>4.818849860293036</v>
+        <v>4.818849860293035</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -36719,7 +36719,7 @@
         <v>4547</v>
       </c>
       <c r="B4547">
-        <v>48.58766135758712</v>
+        <v>48.58766135758711</v>
       </c>
     </row>
     <row r="4548" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>64.34609110640766</v>
+        <v>64.34609110640764</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36839,7 +36839,7 @@
         <v>4562</v>
       </c>
       <c r="B4562">
-        <v>45.93536845770194</v>
+        <v>45.93536845770193</v>
       </c>
     </row>
     <row r="4563" spans="1:2">
@@ -36871,7 +36871,7 @@
         <v>4566</v>
       </c>
       <c r="B4566">
-        <v>38.20356831573833</v>
+        <v>38.20356831573832</v>
       </c>
     </row>
     <row r="4567" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>17.3504502450367</v>
+        <v>17.35045024503669</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -37103,7 +37103,7 @@
         <v>4595</v>
       </c>
       <c r="B4595">
-        <v>68.80223624925341</v>
+        <v>68.8022362492534</v>
       </c>
     </row>
     <row r="4596" spans="1:2">
@@ -37119,7 +37119,7 @@
         <v>4597</v>
       </c>
       <c r="B4597">
-        <v>80.77653274687866</v>
+        <v>80.77653274687864</v>
       </c>
     </row>
     <row r="4598" spans="1:2">
@@ -37127,7 +37127,7 @@
         <v>4598</v>
       </c>
       <c r="B4598">
-        <v>89.39692427806347</v>
+        <v>89.39692427806345</v>
       </c>
     </row>
     <row r="4599" spans="1:2">
@@ -37287,7 +37287,7 @@
         <v>4618</v>
       </c>
       <c r="B4618">
-        <v>25.31125609661029</v>
+        <v>25.31125609661028</v>
       </c>
     </row>
     <row r="4619" spans="1:2">
@@ -37303,7 +37303,7 @@
         <v>4620</v>
       </c>
       <c r="B4620">
-        <v>48.84995993718902</v>
+        <v>48.84995993718901</v>
       </c>
     </row>
     <row r="4621" spans="1:2">
@@ -37327,7 +37327,7 @@
         <v>4623</v>
       </c>
       <c r="B4623">
-        <v>39.38024853596363</v>
+        <v>39.38024853596362</v>
       </c>
     </row>
     <row r="4624" spans="1:2">
@@ -37375,7 +37375,7 @@
         <v>4629</v>
       </c>
       <c r="B4629">
-        <v>72.24904473494949</v>
+        <v>72.24904473494948</v>
       </c>
     </row>
     <row r="4630" spans="1:2">
@@ -37383,7 +37383,7 @@
         <v>4630</v>
       </c>
       <c r="B4630">
-        <v>63.91732817684611</v>
+        <v>63.9173281768461</v>
       </c>
     </row>
     <row r="4631" spans="1:2">
@@ -37415,7 +37415,7 @@
         <v>4634</v>
       </c>
       <c r="B4634">
-        <v>31.97522260210742</v>
+        <v>31.97522260210741</v>
       </c>
     </row>
     <row r="4635" spans="1:2">
@@ -37471,7 +37471,7 @@
         <v>4641</v>
       </c>
       <c r="B4641">
-        <v>7.127663502867114</v>
+        <v>7.127663502867113</v>
       </c>
     </row>
     <row r="4642" spans="1:2">
@@ -37583,7 +37583,7 @@
         <v>4655</v>
       </c>
       <c r="B4655">
-        <v>62.95927895146217</v>
+        <v>62.95927895146216</v>
       </c>
     </row>
     <row r="4656" spans="1:2">
@@ -37591,7 +37591,7 @@
         <v>4656</v>
       </c>
       <c r="B4656">
-        <v>54.53377966098715</v>
+        <v>54.53377966098714</v>
       </c>
     </row>
     <row r="4657" spans="1:2">
@@ -37679,7 +37679,7 @@
         <v>4667</v>
       </c>
       <c r="B4667">
-        <v>36.72854177815578</v>
+        <v>36.72854177815577</v>
       </c>
     </row>
     <row r="4668" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>63.94018771786169</v>
+        <v>63.94018771786168</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37727,7 +37727,7 @@
         <v>4673</v>
       </c>
       <c r="B4673">
-        <v>87.97347824328531</v>
+        <v>87.9734782432853</v>
       </c>
     </row>
     <row r="4674" spans="1:2">
@@ -37783,7 +37783,7 @@
         <v>4680</v>
       </c>
       <c r="B4680">
-        <v>71.01375030699192</v>
+        <v>71.01375030699191</v>
       </c>
     </row>
     <row r="4681" spans="1:2">
@@ -37823,7 +37823,7 @@
         <v>4685</v>
       </c>
       <c r="B4685">
-        <v>46.45556955132583</v>
+        <v>46.45556955132582</v>
       </c>
     </row>
     <row r="4686" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>49.98648942511772</v>
+        <v>49.98648942511771</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37871,7 +37871,7 @@
         <v>4691</v>
       </c>
       <c r="B4691">
-        <v>89.33332786267395</v>
+        <v>89.33332786267394</v>
       </c>
     </row>
     <row r="4692" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>62.40654697254687</v>
+        <v>62.40654697254686</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38055,7 +38055,7 @@
         <v>4714</v>
       </c>
       <c r="B4714">
-        <v>76.09061990972241</v>
+        <v>76.09061990972239</v>
       </c>
     </row>
     <row r="4715" spans="1:2">
@@ -38079,7 +38079,7 @@
         <v>4717</v>
       </c>
       <c r="B4717">
-        <v>98.25763406095058</v>
+        <v>98.25763406095056</v>
       </c>
     </row>
     <row r="4718" spans="1:2">
@@ -38159,7 +38159,7 @@
         <v>4727</v>
       </c>
       <c r="B4727">
-        <v>88.61002853925775</v>
+        <v>88.61002853925774</v>
       </c>
     </row>
     <row r="4728" spans="1:2">
@@ -38183,7 +38183,7 @@
         <v>4730</v>
       </c>
       <c r="B4730">
-        <v>58.85745669435798</v>
+        <v>58.85745669435797</v>
       </c>
     </row>
     <row r="4731" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>45.69094721145838</v>
+        <v>45.69094721145837</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38303,7 +38303,7 @@
         <v>4745</v>
       </c>
       <c r="B4745">
-        <v>98.14626706625928</v>
+        <v>98.14626706625926</v>
       </c>
     </row>
     <row r="4746" spans="1:2">
@@ -38343,7 +38343,7 @@
         <v>4750</v>
       </c>
       <c r="B4750">
-        <v>80.70971255006387</v>
+        <v>80.70971255006386</v>
       </c>
     </row>
     <row r="4751" spans="1:2">
@@ -38351,7 +38351,7 @@
         <v>4751</v>
       </c>
       <c r="B4751">
-        <v>66.90665277119183</v>
+        <v>66.90665277119182</v>
       </c>
     </row>
     <row r="4752" spans="1:2">
@@ -38415,7 +38415,7 @@
         <v>4759</v>
       </c>
       <c r="B4759">
-        <v>4.421650681595315</v>
+        <v>4.421650681595314</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -38463,7 +38463,7 @@
         <v>4765</v>
       </c>
       <c r="B4765">
-        <v>65.171379151278</v>
+        <v>65.17137915127799</v>
       </c>
     </row>
     <row r="4766" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>77.02112045747218</v>
+        <v>77.02112045747216</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38591,7 +38591,7 @@
         <v>4781</v>
       </c>
       <c r="B4781">
-        <v>30.49345543063566</v>
+        <v>30.49345543063565</v>
       </c>
     </row>
     <row r="4782" spans="1:2">
@@ -38703,7 +38703,7 @@
         <v>4795</v>
       </c>
       <c r="B4795">
-        <v>109.9139484816283</v>
+        <v>109.9139484816282</v>
       </c>
     </row>
     <row r="4796" spans="1:2">
@@ -38719,7 +38719,7 @@
         <v>4797</v>
       </c>
       <c r="B4797">
-        <v>82.0628215355633</v>
+        <v>82.06282153556329</v>
       </c>
     </row>
     <row r="4798" spans="1:2">
@@ -38735,7 +38735,7 @@
         <v>4799</v>
       </c>
       <c r="B4799">
-        <v>60.02915470692604</v>
+        <v>60.02915470692603</v>
       </c>
     </row>
     <row r="4800" spans="1:2">
@@ -38847,7 +38847,7 @@
         <v>4813</v>
       </c>
       <c r="B4813">
-        <v>52.02948763562596</v>
+        <v>52.02948763562595</v>
       </c>
     </row>
     <row r="4814" spans="1:2">
@@ -38903,7 +38903,7 @@
         <v>4820</v>
       </c>
       <c r="B4820">
-        <v>89.93207199465908</v>
+        <v>89.93207199465907</v>
       </c>
     </row>
     <row r="4821" spans="1:2">
@@ -39063,7 +39063,7 @@
         <v>4840</v>
       </c>
       <c r="B4840">
-        <v>62.35789718012909</v>
+        <v>62.35789718012908</v>
       </c>
     </row>
     <row r="4841" spans="1:2">
@@ -39071,7 +39071,7 @@
         <v>4841</v>
       </c>
       <c r="B4841">
-        <v>53.75948597684388</v>
+        <v>53.75948597684387</v>
       </c>
     </row>
     <row r="4842" spans="1:2">
@@ -39127,7 +39127,7 @@
         <v>4848</v>
       </c>
       <c r="B4848">
-        <v>54.02969747448964</v>
+        <v>54.02969747448963</v>
       </c>
     </row>
     <row r="4849" spans="1:2">
@@ -39199,7 +39199,7 @@
         <v>4857</v>
       </c>
       <c r="B4857">
-        <v>47.10472190196071</v>
+        <v>47.1047219019607</v>
       </c>
     </row>
     <row r="4858" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>49.12544671353069</v>
+        <v>49.12544671353068</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39311,7 +39311,7 @@
         <v>4871</v>
       </c>
       <c r="B4871">
-        <v>58.97702967813181</v>
+        <v>58.9770296781318</v>
       </c>
     </row>
     <row r="4872" spans="1:2">
@@ -39351,7 +39351,7 @@
         <v>4876</v>
       </c>
       <c r="B4876">
-        <v>34.26469355612985</v>
+        <v>34.26469355612984</v>
       </c>
     </row>
     <row r="4877" spans="1:2">
@@ -39375,7 +39375,7 @@
         <v>4879</v>
       </c>
       <c r="B4879">
-        <v>7.041647153020009</v>
+        <v>7.041647153020008</v>
       </c>
     </row>
     <row r="4880" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>45.02333138538784</v>
+        <v>45.02333138538783</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39399,7 +39399,7 @@
         <v>4882</v>
       </c>
       <c r="B4882">
-        <v>61.44556703677632</v>
+        <v>61.44556703677631</v>
       </c>
     </row>
     <row r="4883" spans="1:2">
@@ -39423,7 +39423,7 @@
         <v>4885</v>
       </c>
       <c r="B4885">
-        <v>66.85829604981271</v>
+        <v>66.85829604981269</v>
       </c>
     </row>
     <row r="4886" spans="1:2">
@@ -39431,7 +39431,7 @@
         <v>4886</v>
       </c>
       <c r="B4886">
-        <v>60.04937660859367</v>
+        <v>60.04937660859366</v>
       </c>
     </row>
     <row r="4887" spans="1:2">
@@ -39463,7 +39463,7 @@
         <v>4890</v>
       </c>
       <c r="B4890">
-        <v>140.5776781857262</v>
+        <v>140.5776781857261</v>
       </c>
     </row>
     <row r="4891" spans="1:2">
@@ -39487,7 +39487,7 @@
         <v>4893</v>
       </c>
       <c r="B4893">
-        <v>94.20475466730284</v>
+        <v>94.20475466730282</v>
       </c>
     </row>
     <row r="4894" spans="1:2">
@@ -39503,7 +39503,7 @@
         <v>4895</v>
       </c>
       <c r="B4895">
-        <v>69.1533353535697</v>
+        <v>69.15333535356969</v>
       </c>
     </row>
     <row r="4896" spans="1:2">
@@ -39535,7 +39535,7 @@
         <v>4899</v>
       </c>
       <c r="B4899">
-        <v>40.88340989325767</v>
+        <v>40.88340989325766</v>
       </c>
     </row>
     <row r="4900" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>34.92205189584725</v>
+        <v>34.92205189584724</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39623,7 +39623,7 @@
         <v>4910</v>
       </c>
       <c r="B4910">
-        <v>65.39323392754464</v>
+        <v>65.39323392754463</v>
       </c>
     </row>
     <row r="4911" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>60.3122613302729</v>
+        <v>60.31226133027289</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39791,7 +39791,7 @@
         <v>4931</v>
       </c>
       <c r="B4931">
-        <v>31.88349136700642</v>
+        <v>31.88349136700641</v>
       </c>
     </row>
     <row r="4932" spans="1:2">
@@ -39863,7 +39863,7 @@
         <v>4940</v>
       </c>
       <c r="B4940">
-        <v>114.0688165967302</v>
+        <v>114.0688165967301</v>
       </c>
     </row>
     <row r="4941" spans="1:2">
@@ -39879,7 +39879,7 @@
         <v>4942</v>
       </c>
       <c r="B4942">
-        <v>93.3126464256177</v>
+        <v>93.31264642561769</v>
       </c>
     </row>
     <row r="4943" spans="1:2">
@@ -39887,7 +39887,7 @@
         <v>4943</v>
       </c>
       <c r="B4943">
-        <v>80.47789335848275</v>
+        <v>80.47789335848273</v>
       </c>
     </row>
     <row r="4944" spans="1:2">
@@ -39895,7 +39895,7 @@
         <v>4944</v>
       </c>
       <c r="B4944">
-        <v>71.48002632950212</v>
+        <v>71.48002632950211</v>
       </c>
     </row>
     <row r="4945" spans="1:2">
@@ -39951,7 +39951,7 @@
         <v>4951</v>
       </c>
       <c r="B4951">
-        <v>5.646658316095873</v>
+        <v>5.646658316095872</v>
       </c>
     </row>
     <row r="4952" spans="1:2">
@@ -40079,7 +40079,7 @@
         <v>4967</v>
       </c>
       <c r="B4967">
-        <v>81.58394345839066</v>
+        <v>81.58394345839065</v>
       </c>
     </row>
     <row r="4968" spans="1:2">
@@ -40087,7 +40087,7 @@
         <v>4968</v>
       </c>
       <c r="B4968">
-        <v>72.17753540151612</v>
+        <v>72.17753540151611</v>
       </c>
     </row>
     <row r="4969" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>65.8621475894028</v>
+        <v>65.86214758940278</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40183,7 +40183,7 @@
         <v>4980</v>
       </c>
       <c r="B4980">
-        <v>87.3389794445835</v>
+        <v>87.33897944458349</v>
       </c>
     </row>
     <row r="4981" spans="1:2">
@@ -40319,7 +40319,7 @@
         <v>4997</v>
       </c>
       <c r="B4997">
-        <v>48.67704802437883</v>
+        <v>48.67704802437882</v>
       </c>
     </row>
     <row r="4998" spans="1:2">
@@ -40335,7 +40335,7 @@
         <v>4999</v>
       </c>
       <c r="B4999">
-        <v>8.121584623383201</v>
+        <v>8.1215846233832</v>
       </c>
     </row>
     <row r="5000" spans="1:2">
@@ -40399,7 +40399,7 @@
         <v>5007</v>
       </c>
       <c r="B5007">
-        <v>78.35371447026532</v>
+        <v>78.3537144702653</v>
       </c>
     </row>
     <row r="5008" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>61.47370185648781</v>
+        <v>61.4737018564878</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40559,7 +40559,7 @@
         <v>5027</v>
       </c>
       <c r="B5027">
-        <v>55.92733244982185</v>
+        <v>55.92733244982184</v>
       </c>
     </row>
     <row r="5028" spans="1:2">
@@ -40671,7 +40671,7 @@
         <v>5041</v>
       </c>
       <c r="B5041">
-        <v>71.47475105080622</v>
+        <v>71.4747510508062</v>
       </c>
     </row>
     <row r="5042" spans="1:2">
@@ -40679,7 +40679,7 @@
         <v>5042</v>
       </c>
       <c r="B5042">
-        <v>64.0281090294601</v>
+        <v>64.02810902946008</v>
       </c>
     </row>
     <row r="5043" spans="1:2">
@@ -40703,7 +40703,7 @@
         <v>5045</v>
       </c>
       <c r="B5045">
-        <v>51.73641659696461</v>
+        <v>51.7364165969646</v>
       </c>
     </row>
     <row r="5046" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>52.28445943926133</v>
+        <v>52.28445943926132</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40735,7 +40735,7 @@
         <v>5049</v>
       </c>
       <c r="B5049">
-        <v>26.86429814468449</v>
+        <v>26.86429814468448</v>
       </c>
     </row>
     <row r="5050" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>36.86100988763071</v>
+        <v>36.8610098876307</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>57.59138980734097</v>
+        <v>57.59138980734096</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -40895,7 +40895,7 @@
         <v>5069</v>
       </c>
       <c r="B5069">
-        <v>55.17619137773282</v>
+        <v>55.17619137773281</v>
       </c>
     </row>
     <row r="5070" spans="1:2">
@@ -40911,7 +40911,7 @@
         <v>5071</v>
       </c>
       <c r="B5071">
-        <v>7.425716749185702</v>
+        <v>7.425716749185701</v>
       </c>
     </row>
     <row r="5072" spans="1:2">
@@ -40927,7 +40927,7 @@
         <v>5073</v>
       </c>
       <c r="B5073">
-        <v>24.10614798563484</v>
+        <v>24.10614798563483</v>
       </c>
     </row>
     <row r="5074" spans="1:2">
@@ -41079,7 +41079,7 @@
         <v>5092</v>
       </c>
       <c r="B5092">
-        <v>64.35927930314742</v>
+        <v>64.3592793031474</v>
       </c>
     </row>
     <row r="5093" spans="1:2">
@@ -41159,7 +41159,7 @@
         <v>5102</v>
       </c>
       <c r="B5102">
-        <v>85.36192221777407</v>
+        <v>85.36192221777405</v>
       </c>
     </row>
     <row r="5103" spans="1:2">
@@ -41167,7 +41167,7 @@
         <v>5103</v>
       </c>
       <c r="B5103">
-        <v>91.05599942792534</v>
+        <v>91.05599942792531</v>
       </c>
     </row>
     <row r="5104" spans="1:2">
@@ -41231,7 +41231,7 @@
         <v>5111</v>
       </c>
       <c r="B5111">
-        <v>105.837330333849</v>
+        <v>105.8373303338489</v>
       </c>
     </row>
     <row r="5112" spans="1:2">
@@ -41247,7 +41247,7 @@
         <v>5113</v>
       </c>
       <c r="B5113">
-        <v>85.19838857820103</v>
+        <v>85.19838857820102</v>
       </c>
     </row>
     <row r="5114" spans="1:2">
@@ -41319,7 +41319,7 @@
         <v>5122</v>
       </c>
       <c r="B5122">
-        <v>79.74462961975206</v>
+        <v>79.74462961975205</v>
       </c>
     </row>
     <row r="5123" spans="1:2">
@@ -41391,7 +41391,7 @@
         <v>5131</v>
       </c>
       <c r="B5131">
-        <v>188.7658837176179</v>
+        <v>188.7658837176178</v>
       </c>
     </row>
     <row r="5132" spans="1:2">
@@ -41455,7 +41455,7 @@
         <v>5139</v>
       </c>
       <c r="B5139">
-        <v>70.3687009508983</v>
+        <v>70.36870095089829</v>
       </c>
     </row>
     <row r="5140" spans="1:2">
@@ -41495,7 +41495,7 @@
         <v>5144</v>
       </c>
       <c r="B5144">
-        <v>31.4347996068159</v>
+        <v>31.43479960681589</v>
       </c>
     </row>
     <row r="5145" spans="1:2">
@@ -41543,7 +41543,7 @@
         <v>5150</v>
       </c>
       <c r="B5150">
-        <v>79.99110236326625</v>
+        <v>79.99110236326624</v>
       </c>
     </row>
     <row r="5151" spans="1:2">
@@ -41639,7 +41639,7 @@
         <v>5162</v>
       </c>
       <c r="B5162">
-        <v>63.7156953022471</v>
+        <v>63.71569530224709</v>
       </c>
     </row>
     <row r="5163" spans="1:2">
@@ -41663,7 +41663,7 @@
         <v>5165</v>
       </c>
       <c r="B5165">
-        <v>48.26645549921428</v>
+        <v>48.26645549921427</v>
       </c>
     </row>
     <row r="5166" spans="1:2">
@@ -41671,7 +41671,7 @@
         <v>5166</v>
       </c>
       <c r="B5166">
-        <v>47.98921029664065</v>
+        <v>47.98921029664064</v>
       </c>
     </row>
     <row r="5167" spans="1:2">
@@ -41687,7 +41687,7 @@
         <v>5168</v>
       </c>
       <c r="B5168">
-        <v>33.00888415546599</v>
+        <v>33.00888415546598</v>
       </c>
     </row>
     <row r="5169" spans="1:2">
@@ -41695,7 +41695,7 @@
         <v>5169</v>
       </c>
       <c r="B5169">
-        <v>57.71594499877204</v>
+        <v>57.71594499877203</v>
       </c>
     </row>
     <row r="5170" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>93.03774579135336</v>
+        <v>93.03774579135334</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -41727,7 +41727,7 @@
         <v>5173</v>
       </c>
       <c r="B5173">
-        <v>98.31917897906946</v>
+        <v>98.31917897906943</v>
       </c>
     </row>
     <row r="5174" spans="1:2">
@@ -41767,7 +41767,7 @@
         <v>5178</v>
       </c>
       <c r="B5178">
-        <v>172.8275083510593</v>
+        <v>172.8275083510592</v>
       </c>
     </row>
     <row r="5179" spans="1:2">
@@ -41815,7 +41815,7 @@
         <v>5184</v>
       </c>
       <c r="B5184">
-        <v>81.25277318470334</v>
+        <v>81.25277318470333</v>
       </c>
     </row>
     <row r="5185" spans="1:2">
@@ -41911,7 +41911,7 @@
         <v>5196</v>
       </c>
       <c r="B5196">
-        <v>52.34805585465084</v>
+        <v>52.34805585465083</v>
       </c>
     </row>
     <row r="5197" spans="1:2">
@@ -42039,7 +42039,7 @@
         <v>5212</v>
       </c>
       <c r="B5212">
-        <v>48.81186070216305</v>
+        <v>48.81186070216304</v>
       </c>
     </row>
     <row r="5213" spans="1:2">
@@ -42111,7 +42111,7 @@
         <v>5221</v>
       </c>
       <c r="B5221">
-        <v>99.40940324288968</v>
+        <v>99.40940324288964</v>
       </c>
     </row>
     <row r="5222" spans="1:2">
@@ -42151,7 +42151,7 @@
         <v>5226</v>
       </c>
       <c r="B5226">
-        <v>167.3133767586461</v>
+        <v>167.313376758646</v>
       </c>
     </row>
     <row r="5227" spans="1:2">
@@ -42223,7 +42223,7 @@
         <v>5235</v>
       </c>
       <c r="B5235">
-        <v>54.23103727804998</v>
+        <v>54.23103727804997</v>
       </c>
     </row>
     <row r="5236" spans="1:2">
@@ -42407,7 +42407,7 @@
         <v>5258</v>
       </c>
       <c r="B5258">
-        <v>31.97903252561002</v>
+        <v>31.97903252561001</v>
       </c>
     </row>
     <row r="5259" spans="1:2">
@@ -42431,7 +42431,7 @@
         <v>5261</v>
       </c>
       <c r="B5261">
-        <v>15.13764667472808</v>
+        <v>15.13764667472807</v>
       </c>
     </row>
     <row r="5262" spans="1:2">
@@ -42439,7 +42439,7 @@
         <v>5262</v>
       </c>
       <c r="B5262">
-        <v>13.15106463916215</v>
+        <v>13.15106463916214</v>
       </c>
     </row>
     <row r="5263" spans="1:2">
@@ -42455,7 +42455,7 @@
         <v>5264</v>
       </c>
       <c r="B5264">
-        <v>6.803439012796068</v>
+        <v>6.803439012796067</v>
       </c>
     </row>
     <row r="5265" spans="1:2">
@@ -42503,7 +42503,7 @@
         <v>5270</v>
       </c>
       <c r="B5270">
-        <v>60.23576978918229</v>
+        <v>60.23576978918228</v>
       </c>
     </row>
     <row r="5271" spans="1:2">
@@ -42511,7 +42511,7 @@
         <v>5271</v>
       </c>
       <c r="B5271">
-        <v>64.29245910633263</v>
+        <v>64.29245910633261</v>
       </c>
     </row>
     <row r="5272" spans="1:2">
@@ -42583,7 +42583,7 @@
         <v>5280</v>
       </c>
       <c r="B5280">
-        <v>32.64195921506198</v>
+        <v>32.64195921506197</v>
       </c>
     </row>
     <row r="5281" spans="1:2">
@@ -42751,7 +42751,7 @@
         <v>5301</v>
       </c>
       <c r="B5301">
-        <v>57.98351885706985</v>
+        <v>57.98351885706984</v>
       </c>
     </row>
     <row r="5302" spans="1:2">
@@ -42775,7 +42775,7 @@
         <v>5304</v>
       </c>
       <c r="B5304">
-        <v>31.27566203282279</v>
+        <v>31.27566203282278</v>
       </c>
     </row>
     <row r="5305" spans="1:2">
@@ -42855,7 +42855,7 @@
         <v>5314</v>
       </c>
       <c r="B5314">
-        <v>9.697808590615516</v>
+        <v>9.697808590615514</v>
       </c>
     </row>
     <row r="5315" spans="1:2">
@@ -42903,7 +42903,7 @@
         <v>5320</v>
       </c>
       <c r="B5320">
-        <v>38.90928337683485</v>
+        <v>38.90928337683484</v>
       </c>
     </row>
     <row r="5321" spans="1:2">
@@ -42919,7 +42919,7 @@
         <v>5322</v>
       </c>
       <c r="B5322">
-        <v>77.08413073078437</v>
+        <v>77.08413073078435</v>
       </c>
     </row>
     <row r="5323" spans="1:2">
@@ -42951,7 +42951,7 @@
         <v>5326</v>
       </c>
       <c r="B5326">
-        <v>46.23371477505919</v>
+        <v>46.23371477505918</v>
       </c>
     </row>
     <row r="5327" spans="1:2">
@@ -43007,7 +43007,7 @@
         <v>5333</v>
       </c>
       <c r="B5333">
-        <v>11.44934765317505</v>
+        <v>11.44934765317504</v>
       </c>
     </row>
     <row r="5334" spans="1:2">
@@ -43151,7 +43151,7 @@
         <v>5351</v>
       </c>
       <c r="B5351">
-        <v>45.52037986695748</v>
+        <v>45.52037986695747</v>
       </c>
     </row>
     <row r="5352" spans="1:2">
@@ -43239,7 +43239,7 @@
         <v>5362</v>
       </c>
       <c r="B5362">
-        <v>38.6109370594776</v>
+        <v>38.61093705947759</v>
       </c>
     </row>
     <row r="5363" spans="1:2">
@@ -43527,7 +43527,7 @@
         <v>5398</v>
       </c>
       <c r="B5398">
-        <v>72.37682370780584</v>
+        <v>72.37682370780583</v>
       </c>
     </row>
     <row r="5399" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>38.46088468768299</v>
+        <v>38.46088468768298</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>29.20411870314894</v>
+        <v>29.20411870314893</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>3.194650164031861</v>
+        <v>3.19465016403186</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43775,7 +43775,7 @@
         <v>5429</v>
       </c>
       <c r="B5429">
-        <v>31.35860113676395</v>
+        <v>31.35860113676394</v>
       </c>
     </row>
     <row r="5430" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>17.36911887019943</v>
+        <v>17.36911887019942</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44055,7 +44055,7 @@
         <v>5464</v>
       </c>
       <c r="B5464">
-        <v>52.63819618292557</v>
+        <v>52.63819618292556</v>
       </c>
     </row>
     <row r="5465" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>32.22931519262681</v>
+        <v>32.2293151926268</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44191,7 +44191,7 @@
         <v>5481</v>
       </c>
       <c r="B5481">
-        <v>8.098080326082561</v>
+        <v>8.09808032608256</v>
       </c>
     </row>
     <row r="5482" spans="1:2">
@@ -44239,7 +44239,7 @@
         <v>5487</v>
       </c>
       <c r="B5487">
-        <v>56.42936313904873</v>
+        <v>56.42936313904872</v>
       </c>
     </row>
     <row r="5488" spans="1:2">
@@ -44279,7 +44279,7 @@
         <v>5492</v>
       </c>
       <c r="B5492">
-        <v>93.31323256769502</v>
+        <v>93.313232567695</v>
       </c>
     </row>
     <row r="5493" spans="1:2">
@@ -44351,7 +44351,7 @@
         <v>5501</v>
       </c>
       <c r="B5501">
-        <v>36.63153526435888</v>
+        <v>36.63153526435887</v>
       </c>
     </row>
     <row r="5502" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>48.93700203567144</v>
+        <v>48.93700203567143</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44559,7 +44559,7 @@
         <v>5527</v>
       </c>
       <c r="B5527">
-        <v>3.809014982377639</v>
+        <v>3.809014982377638</v>
       </c>
     </row>
     <row r="5528" spans="1:2">
@@ -44887,7 +44887,7 @@
         <v>5568</v>
       </c>
       <c r="B5568">
-        <v>62.73244196753829</v>
+        <v>62.73244196753828</v>
       </c>
     </row>
     <row r="5569" spans="1:2">
@@ -44951,7 +44951,7 @@
         <v>5576</v>
       </c>
       <c r="B5576">
-        <v>5.674734521599629</v>
+        <v>5.674734521599628</v>
       </c>
     </row>
     <row r="5577" spans="1:2">
@@ -44983,7 +44983,7 @@
         <v>5580</v>
       </c>
       <c r="B5580">
-        <v>42.3100797094611</v>
+        <v>42.31007970946109</v>
       </c>
     </row>
     <row r="5581" spans="1:2">
@@ -45031,7 +45031,7 @@
         <v>5586</v>
       </c>
       <c r="B5586">
-        <v>95.5599151500729</v>
+        <v>95.55991515007288</v>
       </c>
     </row>
     <row r="5587" spans="1:2">
@@ -45119,7 +45119,7 @@
         <v>5597</v>
       </c>
       <c r="B5597">
-        <v>13.0694150477911</v>
+        <v>13.06941504779109</v>
       </c>
     </row>
     <row r="5598" spans="1:2">
@@ -45159,7 +45159,7 @@
         <v>5602</v>
       </c>
       <c r="B5602">
-        <v>9.16682248276889</v>
+        <v>9.166822482768888</v>
       </c>
     </row>
     <row r="5603" spans="1:2">
@@ -45175,7 +45175,7 @@
         <v>5604</v>
       </c>
       <c r="B5604">
-        <v>23.0139601458556</v>
+        <v>23.01396014585559</v>
       </c>
     </row>
     <row r="5605" spans="1:2">
@@ -45191,7 +45191,7 @@
         <v>5606</v>
       </c>
       <c r="B5606">
-        <v>39.11560538805244</v>
+        <v>39.11560538805243</v>
       </c>
     </row>
     <row r="5607" spans="1:2">
@@ -45223,7 +45223,7 @@
         <v>5610</v>
       </c>
       <c r="B5610">
-        <v>84.92085030458874</v>
+        <v>84.92085030458873</v>
       </c>
     </row>
     <row r="5611" spans="1:2">
@@ -45255,7 +45255,7 @@
         <v>5614</v>
       </c>
       <c r="B5614">
-        <v>49.14303097585037</v>
+        <v>49.14303097585036</v>
       </c>
     </row>
     <row r="5615" spans="1:2">
@@ -45343,7 +45343,7 @@
         <v>5625</v>
       </c>
       <c r="B5625">
-        <v>12.43277683050706</v>
+        <v>12.43277683050705</v>
       </c>
     </row>
     <row r="5626" spans="1:2">
@@ -45527,7 +45527,7 @@
         <v>5648</v>
       </c>
       <c r="B5648">
-        <v>5.900457835576598</v>
+        <v>5.900457835576597</v>
       </c>
     </row>
     <row r="5649" spans="1:2">
@@ -45575,7 +45575,7 @@
         <v>5654</v>
       </c>
       <c r="B5654">
-        <v>50.56442551335789</v>
+        <v>50.56442551335788</v>
       </c>
     </row>
     <row r="5655" spans="1:2">
@@ -45599,7 +45599,7 @@
         <v>5657</v>
       </c>
       <c r="B5657">
-        <v>65.52042675832367</v>
+        <v>65.52042675832365</v>
       </c>
     </row>
     <row r="5658" spans="1:2">
@@ -45623,7 +45623,7 @@
         <v>5660</v>
       </c>
       <c r="B5660">
-        <v>78.13449733334663</v>
+        <v>78.13449733334662</v>
       </c>
     </row>
     <row r="5661" spans="1:2">
@@ -45631,7 +45631,7 @@
         <v>5661</v>
       </c>
       <c r="B5661">
-        <v>69.64803926683005</v>
+        <v>69.64803926683004</v>
       </c>
     </row>
     <row r="5662" spans="1:2">
@@ -45735,7 +45735,7 @@
         <v>5674</v>
       </c>
       <c r="B5674">
-        <v>42.33557688982464</v>
+        <v>42.33557688982463</v>
       </c>
     </row>
     <row r="5675" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>78.48295879831497</v>
+        <v>78.48295879831495</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45767,7 +45767,7 @@
         <v>5678</v>
       </c>
       <c r="B5678">
-        <v>82.73512649825243</v>
+        <v>82.73512649825241</v>
       </c>
     </row>
     <row r="5679" spans="1:2">
@@ -45879,7 +45879,7 @@
         <v>5692</v>
       </c>
       <c r="B5692">
-        <v>35.00880092329101</v>
+        <v>35.008800923291</v>
       </c>
     </row>
     <row r="5693" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>41.33444622175748</v>
+        <v>41.33444622175747</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>57.95538403735836</v>
+        <v>57.95538403735835</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -45967,7 +45967,7 @@
         <v>5703</v>
       </c>
       <c r="B5703">
-        <v>90.91884218183183</v>
+        <v>90.91884218183182</v>
       </c>
     </row>
     <row r="5704" spans="1:2">
@@ -45999,7 +45999,7 @@
         <v>5707</v>
       </c>
       <c r="B5707">
-        <v>96.73219930471828</v>
+        <v>96.73219930471826</v>
       </c>
     </row>
     <row r="5708" spans="1:2">
@@ -46103,7 +46103,7 @@
         <v>5720</v>
       </c>
       <c r="B5720">
-        <v>5.62476590950787</v>
+        <v>5.624765909507869</v>
       </c>
     </row>
     <row r="5721" spans="1:2">
@@ -46335,7 +46335,7 @@
         <v>5749</v>
       </c>
       <c r="B5749">
-        <v>59.60097791944181</v>
+        <v>59.6009779194418</v>
       </c>
     </row>
     <row r="5750" spans="1:2">
@@ -46391,7 +46391,7 @@
         <v>5756</v>
       </c>
       <c r="B5756">
-        <v>100.4512707853308</v>
+        <v>100.4512707853307</v>
       </c>
     </row>
     <row r="5757" spans="1:2">
@@ -46431,7 +46431,7 @@
         <v>5761</v>
       </c>
       <c r="B5761">
-        <v>53.50744488359512</v>
+        <v>53.50744488359511</v>
       </c>
     </row>
     <row r="5762" spans="1:2">
@@ -46439,7 +46439,7 @@
         <v>5762</v>
       </c>
       <c r="B5762">
-        <v>46.63873895048917</v>
+        <v>46.63873895048916</v>
       </c>
     </row>
     <row r="5763" spans="1:2">
@@ -46535,7 +46535,7 @@
         <v>5774</v>
       </c>
       <c r="B5774">
-        <v>72.0245523193349</v>
+        <v>72.02455231933489</v>
       </c>
     </row>
     <row r="5775" spans="1:2">
@@ -46559,7 +46559,7 @@
         <v>5777</v>
       </c>
       <c r="B5777">
-        <v>85.49439032724899</v>
+        <v>85.49439032724898</v>
       </c>
     </row>
     <row r="5778" spans="1:2">
@@ -46591,7 +46591,7 @@
         <v>5781</v>
       </c>
       <c r="B5781">
-        <v>81.92244050804452</v>
+        <v>81.9224405080445</v>
       </c>
     </row>
     <row r="5782" spans="1:2">
@@ -46631,7 +46631,7 @@
         <v>5786</v>
       </c>
       <c r="B5786">
-        <v>32.29789381567356</v>
+        <v>32.29789381567355</v>
       </c>
     </row>
     <row r="5787" spans="1:2">
@@ -46855,7 +46855,7 @@
         <v>5814</v>
       </c>
       <c r="B5814">
-        <v>7.514781037834886</v>
+        <v>7.514781037834885</v>
       </c>
     </row>
     <row r="5815" spans="1:2">
@@ -46903,7 +46903,7 @@
         <v>5820</v>
       </c>
       <c r="B5820">
-        <v>27.68973272507417</v>
+        <v>27.68973272507416</v>
       </c>
     </row>
     <row r="5821" spans="1:2">
@@ -46951,7 +46951,7 @@
         <v>5826</v>
       </c>
       <c r="B5826">
-        <v>88.26889385025595</v>
+        <v>88.26889385025594</v>
       </c>
     </row>
     <row r="5827" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>58.61801765577166</v>
+        <v>58.61801765577165</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -47023,7 +47023,7 @@
         <v>5835</v>
       </c>
       <c r="B5835">
-        <v>34.66737316325054</v>
+        <v>34.66737316325053</v>
       </c>
     </row>
     <row r="5836" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>8.606880956302524</v>
+        <v>8.606880956302522</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47183,7 +47183,7 @@
         <v>5855</v>
       </c>
       <c r="B5855">
-        <v>67.25833801758544</v>
+        <v>67.25833801758543</v>
       </c>
     </row>
     <row r="5856" spans="1:2">
@@ -47207,7 +47207,7 @@
         <v>5858</v>
       </c>
       <c r="B5858">
-        <v>48.87575018859122</v>
+        <v>48.87575018859121</v>
       </c>
     </row>
     <row r="5859" spans="1:2">
@@ -47319,7 +47319,7 @@
         <v>5872</v>
       </c>
       <c r="B5872">
-        <v>79.55852951020211</v>
+        <v>79.55852951020209</v>
       </c>
     </row>
     <row r="5873" spans="1:2">
@@ -47447,7 +47447,7 @@
         <v>5888</v>
       </c>
       <c r="B5888">
-        <v>5.647420300796392</v>
+        <v>5.647420300796391</v>
       </c>
     </row>
     <row r="5889" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>69.52026029397371</v>
+        <v>69.52026029397369</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47519,7 +47519,7 @@
         <v>5897</v>
       </c>
       <c r="B5897">
-        <v>66.96556004996276</v>
+        <v>66.96556004996275</v>
       </c>
     </row>
     <row r="5898" spans="1:2">
@@ -47543,7 +47543,7 @@
         <v>5900</v>
       </c>
       <c r="B5900">
-        <v>79.31410826395854</v>
+        <v>79.31410826395853</v>
       </c>
     </row>
     <row r="5901" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>22.98037420482501</v>
+        <v>22.980374204825</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47679,7 +47679,7 @@
         <v>5917</v>
       </c>
       <c r="B5917">
-        <v>59.32343964582952</v>
+        <v>59.32343964582951</v>
       </c>
     </row>
     <row r="5918" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>6.686386439954728</v>
+        <v>6.686386439954727</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -47871,7 +47871,7 @@
         <v>5941</v>
       </c>
       <c r="B5941">
-        <v>72.47295100848676</v>
+        <v>72.47295100848675</v>
       </c>
     </row>
     <row r="5942" spans="1:2">
@@ -47943,7 +47943,7 @@
         <v>5950</v>
       </c>
       <c r="B5950">
-        <v>72.46093509590165</v>
+        <v>72.46093509590163</v>
       </c>
     </row>
     <row r="5951" spans="1:2">
@@ -47951,7 +47951,7 @@
         <v>5951</v>
       </c>
       <c r="B5951">
-        <v>60.90807475187141</v>
+        <v>60.9080747518714</v>
       </c>
     </row>
     <row r="5952" spans="1:2">
@@ -47991,7 +47991,7 @@
         <v>5956</v>
       </c>
       <c r="B5956">
-        <v>33.23806570769916</v>
+        <v>33.23806570769915</v>
       </c>
     </row>
     <row r="5957" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>55.00298639388397</v>
+        <v>55.00298639388396</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48071,7 +48071,7 @@
         <v>5966</v>
       </c>
       <c r="B5966">
-        <v>70.09848945325254</v>
+        <v>70.09848945325253</v>
       </c>
     </row>
     <row r="5967" spans="1:2">
@@ -48087,7 +48087,7 @@
         <v>5968</v>
       </c>
       <c r="B5968">
-        <v>81.67801926180096</v>
+        <v>81.67801926180094</v>
       </c>
     </row>
     <row r="5969" spans="1:2">
@@ -48143,7 +48143,7 @@
         <v>5975</v>
       </c>
       <c r="B5975">
-        <v>66.24431222381719</v>
+        <v>66.24431222381718</v>
       </c>
     </row>
     <row r="5976" spans="1:2">
@@ -48223,7 +48223,7 @@
         <v>5985</v>
       </c>
       <c r="B5985">
-        <v>32.74365486547747</v>
+        <v>32.74365486547746</v>
       </c>
     </row>
     <row r="5986" spans="1:2">
@@ -48231,7 +48231,7 @@
         <v>5986</v>
       </c>
       <c r="B5986">
-        <v>59.16547435599105</v>
+        <v>59.16547435599104</v>
       </c>
     </row>
     <row r="5987" spans="1:2">
@@ -48239,7 +48239,7 @@
         <v>5987</v>
       </c>
       <c r="B5987">
-        <v>74.65193418093386</v>
+        <v>74.65193418093385</v>
       </c>
     </row>
     <row r="5988" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>87.75426110636663</v>
+        <v>87.75426110636661</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48255,7 +48255,7 @@
         <v>5989</v>
       </c>
       <c r="B5989">
-        <v>97.08066076968662</v>
+        <v>97.0806607696866</v>
       </c>
     </row>
     <row r="5990" spans="1:2">
@@ -48351,7 +48351,7 @@
         <v>6001</v>
       </c>
       <c r="B6001">
-        <v>49.0108559374141</v>
+        <v>49.01085593741409</v>
       </c>
     </row>
     <row r="6002" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>53.03853122173697</v>
+        <v>53.03853122173696</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48479,7 +48479,7 @@
         <v>6017</v>
       </c>
       <c r="B6017">
-        <v>74.28969837714844</v>
+        <v>74.28969837714843</v>
       </c>
     </row>
     <row r="6018" spans="1:2">
@@ -48503,7 +48503,7 @@
         <v>6020</v>
       </c>
       <c r="B6020">
-        <v>85.82292296158836</v>
+        <v>85.82292296158835</v>
       </c>
     </row>
     <row r="6021" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>59.23200148176718</v>
+        <v>59.23200148176717</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48535,7 +48535,7 @@
         <v>6024</v>
       </c>
       <c r="B6024">
-        <v>52.58515032492787</v>
+        <v>52.58515032492786</v>
       </c>
     </row>
     <row r="6025" spans="1:2">
@@ -48567,7 +48567,7 @@
         <v>6028</v>
       </c>
       <c r="B6028">
-        <v>32.3362861217382</v>
+        <v>32.33628612173819</v>
       </c>
     </row>
     <row r="6029" spans="1:2">
@@ -48591,7 +48591,7 @@
         <v>6031</v>
       </c>
       <c r="B6031">
-        <v>2.594540321006571</v>
+        <v>2.59454032100657</v>
       </c>
     </row>
     <row r="6032" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>72.11188748885598</v>
+        <v>72.11188748885597</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48679,7 +48679,7 @@
         <v>6042</v>
       </c>
       <c r="B6042">
-        <v>98.90795869574011</v>
+        <v>98.90795869574008</v>
       </c>
     </row>
     <row r="6043" spans="1:2">
@@ -48735,7 +48735,7 @@
         <v>6049</v>
       </c>
       <c r="B6049">
-        <v>38.07080713522474</v>
+        <v>38.07080713522473</v>
       </c>
     </row>
     <row r="6050" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>51.20419959075561</v>
+        <v>51.2041995907556</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48879,7 +48879,7 @@
         <v>6067</v>
       </c>
       <c r="B6067">
-        <v>88.33249026564546</v>
+        <v>88.33249026564545</v>
       </c>
     </row>
     <row r="6068" spans="1:2">
@@ -48895,7 +48895,7 @@
         <v>6069</v>
       </c>
       <c r="B6069">
-        <v>68.58829439103063</v>
+        <v>68.58829439103062</v>
       </c>
     </row>
     <row r="6070" spans="1:2">
@@ -48951,7 +48951,7 @@
         <v>6076</v>
       </c>
       <c r="B6076">
-        <v>20.47405998929705</v>
+        <v>20.47405998929704</v>
       </c>
     </row>
     <row r="6077" spans="1:2">
@@ -48983,7 +48983,7 @@
         <v>6080</v>
       </c>
       <c r="B6080">
-        <v>4.072632381653519</v>
+        <v>4.072632381653518</v>
       </c>
     </row>
     <row r="6081" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>30.42223916824095</v>
+        <v>30.42223916824094</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49071,7 +49071,7 @@
         <v>6091</v>
       </c>
       <c r="B6091">
-        <v>98.44109653115258</v>
+        <v>98.44109653115255</v>
       </c>
     </row>
     <row r="6092" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>42.74353177564123</v>
+        <v>42.74353177564122</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49239,7 +49239,7 @@
         <v>6112</v>
       </c>
       <c r="B6112">
-        <v>54.8192308526433</v>
+        <v>54.81923085264329</v>
       </c>
     </row>
     <row r="6113" spans="1:2">
@@ -49391,7 +49391,7 @@
         <v>6131</v>
       </c>
       <c r="B6131">
-        <v>44.97233702466076</v>
+        <v>44.97233702466075</v>
       </c>
     </row>
     <row r="6132" spans="1:2">
@@ -49423,7 +49423,7 @@
         <v>6135</v>
       </c>
       <c r="B6135">
-        <v>63.30774041643051</v>
+        <v>63.3077404164305</v>
       </c>
     </row>
     <row r="6136" spans="1:2">
@@ -49431,7 +49431,7 @@
         <v>6136</v>
       </c>
       <c r="B6136">
-        <v>70.74881408804207</v>
+        <v>70.74881408804205</v>
       </c>
     </row>
     <row r="6137" spans="1:2">
@@ -49479,7 +49479,7 @@
         <v>6142</v>
       </c>
       <c r="B6142">
-        <v>58.5130982239309</v>
+        <v>58.51309822393089</v>
       </c>
     </row>
     <row r="6143" spans="1:2">
@@ -49527,7 +49527,7 @@
         <v>6148</v>
       </c>
       <c r="B6148">
-        <v>21.87822194973129</v>
+        <v>21.87822194973128</v>
       </c>
     </row>
     <row r="6149" spans="1:2">
@@ -49647,7 +49647,7 @@
         <v>6163</v>
       </c>
       <c r="B6163">
-        <v>105.2611526718408</v>
+        <v>105.2611526718407</v>
       </c>
     </row>
     <row r="6164" spans="1:2">
@@ -49815,7 +49815,7 @@
         <v>6184</v>
       </c>
       <c r="B6184">
-        <v>68.67240577912644</v>
+        <v>68.67240577912642</v>
       </c>
     </row>
     <row r="6185" spans="1:2">
@@ -49967,7 +49967,7 @@
         <v>6203</v>
       </c>
       <c r="B6203">
-        <v>51.90229480484693</v>
+        <v>51.90229480484692</v>
       </c>
     </row>
     <row r="6204" spans="1:2">
@@ -50007,7 +50007,7 @@
         <v>6208</v>
       </c>
       <c r="B6208">
-        <v>62.62254032804028</v>
+        <v>62.62254032804027</v>
       </c>
     </row>
     <row r="6209" spans="1:2">
@@ -50039,7 +50039,7 @@
         <v>6212</v>
       </c>
       <c r="B6212">
-        <v>79.90230183855186</v>
+        <v>79.90230183855185</v>
       </c>
     </row>
     <row r="6213" spans="1:2">
@@ -50199,7 +50199,7 @@
         <v>6232</v>
       </c>
       <c r="B6232">
-        <v>67.69354850999754</v>
+        <v>67.69354850999753</v>
       </c>
     </row>
     <row r="6233" spans="1:2">
@@ -50207,7 +50207,7 @@
         <v>6233</v>
       </c>
       <c r="B6233">
-        <v>58.90815798404639</v>
+        <v>58.90815798404638</v>
       </c>
     </row>
     <row r="6234" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>2.913214045605371</v>
+        <v>2.91321404560537</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50375,7 +50375,7 @@
         <v>6254</v>
       </c>
       <c r="B6254">
-        <v>45.20943149493779</v>
+        <v>45.20943149493778</v>
       </c>
     </row>
     <row r="6255" spans="1:2">
@@ -50391,7 +50391,7 @@
         <v>6256</v>
       </c>
       <c r="B6256">
-        <v>76.98009051205959</v>
+        <v>76.98009051205958</v>
       </c>
     </row>
     <row r="6257" spans="1:2">
@@ -50399,7 +50399,7 @@
         <v>6257</v>
       </c>
       <c r="B6257">
-        <v>66.11653325096084</v>
+        <v>66.11653325096083</v>
       </c>
     </row>
     <row r="6258" spans="1:2">
@@ -50455,7 +50455,7 @@
         <v>6264</v>
       </c>
       <c r="B6264">
-        <v>51.73641659696461</v>
+        <v>51.7364165969646</v>
       </c>
     </row>
     <row r="6265" spans="1:2">
@@ -50671,7 +50671,7 @@
         <v>6291</v>
       </c>
       <c r="B6291">
-        <v>7.923878900702258</v>
+        <v>7.923878900702257</v>
       </c>
     </row>
     <row r="6292" spans="1:2">
@@ -50711,7 +50711,7 @@
         <v>6296</v>
       </c>
       <c r="B6296">
-        <v>0.5815262084637745</v>
+        <v>0.5815262084637743</v>
       </c>
     </row>
     <row r="6297" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>7.08531473778055</v>
+        <v>7.085314737780549</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50783,7 +50783,7 @@
         <v>6305</v>
       </c>
       <c r="B6305">
-        <v>17.74993537783598</v>
+        <v>17.74993537783597</v>
       </c>
     </row>
     <row r="6306" spans="1:2">
@@ -50791,7 +50791,7 @@
         <v>6306</v>
       </c>
       <c r="B6306">
-        <v>53.95555050170832</v>
+        <v>53.95555050170831</v>
       </c>
     </row>
     <row r="6307" spans="1:2">
@@ -50943,7 +50943,7 @@
         <v>6325</v>
       </c>
       <c r="B6325">
-        <v>22.45944043360447</v>
+        <v>22.45944043360446</v>
       </c>
     </row>
     <row r="6326" spans="1:2">
@@ -50951,7 +50951,7 @@
         <v>6326</v>
       </c>
       <c r="B6326">
-        <v>32.29554924736427</v>
+        <v>32.29554924736426</v>
       </c>
     </row>
     <row r="6327" spans="1:2">
@@ -50983,7 +50983,7 @@
         <v>6330</v>
       </c>
       <c r="B6330">
-        <v>66.33311274853158</v>
+        <v>66.33311274853156</v>
       </c>
     </row>
     <row r="6331" spans="1:2">
@@ -50999,7 +50999,7 @@
         <v>6332</v>
       </c>
       <c r="B6332">
-        <v>43.86951070617812</v>
+        <v>43.86951070617811</v>
       </c>
     </row>
     <row r="6333" spans="1:2">
@@ -51063,7 +51063,7 @@
         <v>6340</v>
       </c>
       <c r="B6340">
-        <v>3.911355389078181</v>
+        <v>3.91135538907818</v>
       </c>
     </row>
     <row r="6341" spans="1:2">
@@ -51095,7 +51095,7 @@
         <v>6344</v>
       </c>
       <c r="B6344">
-        <v>0.6894965098170006</v>
+        <v>0.6894965098170005</v>
       </c>
     </row>
     <row r="6345" spans="1:2">
@@ -51183,7 +51183,7 @@
         <v>6355</v>
       </c>
       <c r="B6355">
-        <v>62.02145162774586</v>
+        <v>62.02145162774585</v>
       </c>
     </row>
     <row r="6356" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>49.2807743640212</v>
+        <v>49.28077436402119</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51367,7 +51367,7 @@
         <v>6378</v>
       </c>
       <c r="B6378">
-        <v>66.79206199507524</v>
+        <v>66.79206199507523</v>
       </c>
     </row>
     <row r="6379" spans="1:2">
@@ -51503,7 +51503,7 @@
         <v>6395</v>
       </c>
       <c r="B6395">
-        <v>7.071804162898262</v>
+        <v>7.071804162898261</v>
       </c>
     </row>
     <row r="6396" spans="1:2">
@@ -51543,7 +51543,7 @@
         <v>6400</v>
       </c>
       <c r="B6400">
-        <v>28.78071897359489</v>
+        <v>28.78071897359488</v>
       </c>
     </row>
     <row r="6401" spans="1:2">
@@ -51599,7 +51599,7 @@
         <v>6407</v>
       </c>
       <c r="B6407">
-        <v>30.17518028264944</v>
+        <v>30.17518028264943</v>
       </c>
     </row>
     <row r="6408" spans="1:2">
@@ -51727,7 +51727,7 @@
         <v>6423</v>
       </c>
       <c r="B6423">
-        <v>28.8315081845949</v>
+        <v>28.83150818459489</v>
       </c>
     </row>
     <row r="6424" spans="1:2">
@@ -51871,7 +51871,7 @@
         <v>6441</v>
       </c>
       <c r="B6441">
-        <v>7.720223835936489</v>
+        <v>7.720223835936488</v>
       </c>
     </row>
     <row r="6442" spans="1:2">
@@ -51911,7 +51911,7 @@
         <v>6446</v>
       </c>
       <c r="B6446">
-        <v>61.33625153935564</v>
+        <v>61.33625153935563</v>
       </c>
     </row>
     <row r="6447" spans="1:2">
@@ -52007,7 +52007,7 @@
         <v>6458</v>
       </c>
       <c r="B6458">
-        <v>23.7485133971564</v>
+        <v>23.74851339715639</v>
       </c>
     </row>
     <row r="6459" spans="1:2">
@@ -52103,7 +52103,7 @@
         <v>6470</v>
       </c>
       <c r="B6470">
-        <v>60.5616647841737</v>
+        <v>60.56166478417369</v>
       </c>
     </row>
     <row r="6471" spans="1:2">
@@ -52159,7 +52159,7 @@
         <v>6477</v>
       </c>
       <c r="B6477">
-        <v>58.28919195039363</v>
+        <v>58.28919195039362</v>
       </c>
     </row>
     <row r="6478" spans="1:2">
@@ -52271,7 +52271,7 @@
         <v>6491</v>
       </c>
       <c r="B6491">
-        <v>8.609577209858207</v>
+        <v>8.609577209858205</v>
       </c>
     </row>
     <row r="6492" spans="1:2">
@@ -52311,7 +52311,7 @@
         <v>6496</v>
       </c>
       <c r="B6496">
-        <v>26.92068501252293</v>
+        <v>26.92068501252292</v>
       </c>
     </row>
     <row r="6497" spans="1:2">
@@ -52351,7 +52351,7 @@
         <v>6501</v>
       </c>
       <c r="B6501">
-        <v>50.20541349099774</v>
+        <v>50.20541349099773</v>
       </c>
     </row>
     <row r="6502" spans="1:2">
@@ -52375,7 +52375,7 @@
         <v>6504</v>
       </c>
       <c r="B6504">
-        <v>29.49379011776181</v>
+        <v>29.4937901177618</v>
       </c>
     </row>
     <row r="6505" spans="1:2">
@@ -52447,7 +52447,7 @@
         <v>6513</v>
       </c>
       <c r="B6513">
-        <v>8.086533327159305</v>
+        <v>8.086533327159303</v>
       </c>
     </row>
     <row r="6514" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>58.10074727253439</v>
+        <v>58.10074727253438</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52527,7 +52527,7 @@
         <v>6523</v>
       </c>
       <c r="B6523">
-        <v>81.21438087863871</v>
+        <v>81.21438087863869</v>
       </c>
     </row>
     <row r="6524" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>34.93729158985764</v>
+        <v>34.93729158985763</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52591,7 +52591,7 @@
         <v>6531</v>
       </c>
       <c r="B6531">
-        <v>32.68767829709315</v>
+        <v>32.68767829709314</v>
       </c>
     </row>
     <row r="6532" spans="1:2">
@@ -52719,7 +52719,7 @@
         <v>6547</v>
       </c>
       <c r="B6547">
-        <v>76.07069107909344</v>
+        <v>76.07069107909342</v>
       </c>
     </row>
     <row r="6548" spans="1:2">
@@ -53039,7 +53039,7 @@
         <v>6587</v>
       </c>
       <c r="B6587">
-        <v>14.90450866347298</v>
+        <v>14.90450866347297</v>
       </c>
     </row>
     <row r="6588" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>37.5336079213585</v>
+        <v>37.53360792135849</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53143,7 +53143,7 @@
         <v>6600</v>
       </c>
       <c r="B6600">
-        <v>5.585377161911785</v>
+        <v>5.585377161911784</v>
       </c>
     </row>
     <row r="6601" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>0.2875826973203343</v>
+        <v>0.2875826973203342</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53239,7 +53239,7 @@
         <v>6612</v>
       </c>
       <c r="B6612">
-        <v>18.44726860722679</v>
+        <v>18.44726860722678</v>
       </c>
     </row>
     <row r="6613" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>49.28575657167844</v>
+        <v>49.28575657167843</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53303,7 +53303,7 @@
         <v>6620</v>
       </c>
       <c r="B6620">
-        <v>28.38498515009048</v>
+        <v>28.38498515009047</v>
       </c>
     </row>
     <row r="6621" spans="1:2">
@@ -53471,7 +53471,7 @@
         <v>6641</v>
       </c>
       <c r="B6641">
-        <v>29.65029005240697</v>
+        <v>29.65029005240696</v>
       </c>
     </row>
     <row r="6642" spans="1:2">
@@ -53503,7 +53503,7 @@
         <v>6645</v>
       </c>
       <c r="B6645">
-        <v>31.28328187982798</v>
+        <v>31.28328187982797</v>
       </c>
     </row>
     <row r="6646" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>3.508060332776304</v>
+        <v>3.508060332776303</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53583,7 +53583,7 @@
         <v>6655</v>
       </c>
       <c r="B6655">
-        <v>0.6063639789903235</v>
+        <v>0.6063639789903233</v>
       </c>
     </row>
     <row r="6656" spans="1:2">
@@ -53623,7 +53623,7 @@
         <v>6660</v>
       </c>
       <c r="B6660">
-        <v>35.95366195193518</v>
+        <v>35.95366195193517</v>
       </c>
     </row>
     <row r="6661" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>46.86792050272234</v>
+        <v>46.86792050272233</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53759,7 +53759,7 @@
         <v>6677</v>
       </c>
       <c r="B6677">
-        <v>4.987570857250373</v>
+        <v>4.987570857250372</v>
       </c>
     </row>
     <row r="6678" spans="1:2">
@@ -53839,7 +53839,7 @@
         <v>6687</v>
       </c>
       <c r="B6687">
-        <v>33.19469119397728</v>
+        <v>33.19469119397727</v>
       </c>
     </row>
     <row r="6688" spans="1:2">
@@ -53879,7 +53879,7 @@
         <v>6692</v>
       </c>
       <c r="B6692">
-        <v>40.12699354247274</v>
+        <v>40.12699354247273</v>
       </c>
     </row>
     <row r="6693" spans="1:2">
@@ -53919,7 +53919,7 @@
         <v>6697</v>
       </c>
       <c r="B6697">
-        <v>13.39657024824876</v>
+        <v>13.39657024824875</v>
       </c>
     </row>
     <row r="6698" spans="1:2">
@@ -53959,7 +53959,7 @@
         <v>6702</v>
       </c>
       <c r="B6702">
-        <v>3.814817788943134</v>
+        <v>3.814817788943133</v>
       </c>
     </row>
     <row r="6703" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>33.60499064810316</v>
+        <v>33.60499064810315</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54015,7 +54015,7 @@
         <v>6709</v>
       </c>
       <c r="B6709">
-        <v>56.18728646111446</v>
+        <v>56.18728646111445</v>
       </c>
     </row>
     <row r="6710" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>38.06846256691545</v>
+        <v>38.06846256691544</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54199,7 +54199,7 @@
         <v>6732</v>
       </c>
       <c r="B6732">
-        <v>61.18356152821308</v>
+        <v>61.18356152821307</v>
       </c>
     </row>
     <row r="6733" spans="1:2">
@@ -54215,7 +54215,7 @@
         <v>6734</v>
       </c>
       <c r="B6734">
-        <v>74.27445868313805</v>
+        <v>74.27445868313804</v>
       </c>
     </row>
     <row r="6735" spans="1:2">
@@ -54239,7 +54239,7 @@
         <v>6737</v>
       </c>
       <c r="B6737">
-        <v>55.36170534520545</v>
+        <v>55.36170534520544</v>
       </c>
     </row>
     <row r="6738" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>67.94588267428496</v>
+        <v>67.94588267428495</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54495,7 +54495,7 @@
         <v>6769</v>
       </c>
       <c r="B6769">
-        <v>8.315216658626753</v>
+        <v>8.315216658626751</v>
       </c>
     </row>
     <row r="6770" spans="1:2">
@@ -54607,7 +54607,7 @@
         <v>6783</v>
       </c>
       <c r="B6783">
-        <v>34.86343768811498</v>
+        <v>34.86343768811497</v>
       </c>
     </row>
     <row r="6784" spans="1:2">
@@ -54623,7 +54623,7 @@
         <v>6785</v>
       </c>
       <c r="B6785">
-        <v>21.58154613729441</v>
+        <v>21.5815461372944</v>
       </c>
     </row>
     <row r="6786" spans="1:2">
@@ -54671,7 +54671,7 @@
         <v>6791</v>
       </c>
       <c r="B6791">
-        <v>9.528647987100186</v>
+        <v>9.528647987100184</v>
       </c>
     </row>
     <row r="6792" spans="1:2">
@@ -54863,7 +54863,7 @@
         <v>6815</v>
       </c>
       <c r="B6815">
-        <v>4.661734476466689</v>
+        <v>4.661734476466688</v>
       </c>
     </row>
     <row r="6816" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>0.7222677133601123</v>
+        <v>0.7222677133601122</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -55015,7 +55015,7 @@
         <v>6834</v>
       </c>
       <c r="B6834">
-        <v>27.37380214539724</v>
+        <v>27.37380214539723</v>
       </c>
     </row>
     <row r="6835" spans="1:2">
@@ -55167,7 +55167,7 @@
         <v>6853</v>
       </c>
       <c r="B6853">
-        <v>23.32836675613149</v>
+        <v>23.32836675613148</v>
       </c>
     </row>
     <row r="6854" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>9.683360188409511</v>
+        <v>9.683360188409509</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55471,7 +55471,7 @@
         <v>6891</v>
       </c>
       <c r="B6891">
-        <v>0.5312733174645136</v>
+        <v>0.5312733174645135</v>
       </c>
     </row>
     <row r="6892" spans="1:2">
@@ -55655,7 +55655,7 @@
         <v>6914</v>
       </c>
       <c r="B6914">
-        <v>1.817951890630578</v>
+        <v>1.817951890630577</v>
       </c>
     </row>
     <row r="6915" spans="1:2">
@@ -55783,7 +55783,7 @@
         <v>6930</v>
       </c>
       <c r="B6930">
-        <v>49.19168076826815</v>
+        <v>49.19168076826814</v>
       </c>
     </row>
     <row r="6931" spans="1:2">
@@ -55831,7 +55831,7 @@
         <v>6936</v>
       </c>
       <c r="B6936">
-        <v>5.499243583649216</v>
+        <v>5.499243583649215</v>
       </c>
     </row>
     <row r="6937" spans="1:2">
@@ -55847,7 +55847,7 @@
         <v>6938</v>
       </c>
       <c r="B6938">
-        <v>2.01352991757084</v>
+        <v>2.013529917570839</v>
       </c>
     </row>
     <row r="6939" spans="1:2">
@@ -55903,7 +55903,7 @@
         <v>6945</v>
       </c>
       <c r="B6945">
-        <v>0.7991519696425297</v>
+        <v>0.7991519696425295</v>
       </c>
     </row>
     <row r="6946" spans="1:2">
@@ -55975,7 +55975,7 @@
         <v>6954</v>
       </c>
       <c r="B6954">
-        <v>49.85372824460413</v>
+        <v>49.85372824460412</v>
       </c>
     </row>
     <row r="6955" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>8.178293869364172</v>
+        <v>8.17829386936417</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>28.46194560484295</v>
+        <v>28.46194560484294</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56247,7 +56247,7 @@
         <v>6988</v>
       </c>
       <c r="B6988">
-        <v>4.893934660398073</v>
+        <v>4.893934660398072</v>
       </c>
     </row>
     <row r="6989" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>4.116270659310193</v>
+        <v>4.116270659310192</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56271,7 +56271,7 @@
         <v>6991</v>
       </c>
       <c r="B6991">
-        <v>0.6599608105407103</v>
+        <v>0.6599608105407102</v>
       </c>
     </row>
     <row r="6992" spans="1:2">
@@ -56343,7 +56343,7 @@
         <v>7000</v>
       </c>
       <c r="B7000">
-        <v>52.72758284971728</v>
+        <v>52.72758284971727</v>
       </c>
     </row>
     <row r="7001" spans="1:2">
@@ -56367,7 +56367,7 @@
         <v>7003</v>
       </c>
       <c r="B7003">
-        <v>60.55668257651646</v>
+        <v>60.55668257651645</v>
       </c>
     </row>
     <row r="7004" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>6.208768568248333</v>
+        <v>6.208768568248332</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56543,7 +56543,7 @@
         <v>7025</v>
       </c>
       <c r="B7025">
-        <v>41.86461173069586</v>
+        <v>41.86461173069585</v>
       </c>
     </row>
     <row r="7026" spans="1:2">
@@ -56559,7 +56559,7 @@
         <v>7027</v>
       </c>
       <c r="B7027">
-        <v>61.01270111267351</v>
+        <v>61.0127011126735</v>
       </c>
     </row>
     <row r="7028" spans="1:2">
@@ -56727,7 +56727,7 @@
         <v>7048</v>
       </c>
       <c r="B7048">
-        <v>46.83245890704432</v>
+        <v>46.83245890704431</v>
       </c>
     </row>
     <row r="7049" spans="1:2">
@@ -56751,7 +56751,7 @@
         <v>7051</v>
       </c>
       <c r="B7051">
-        <v>55.88161336779068</v>
+        <v>55.88161336779067</v>
       </c>
     </row>
     <row r="7052" spans="1:2">
@@ -56799,7 +56799,7 @@
         <v>7057</v>
       </c>
       <c r="B7057">
-        <v>17.23817473012554</v>
+        <v>17.23817473012553</v>
       </c>
     </row>
     <row r="7058" spans="1:2">
@@ -56823,7 +56823,7 @@
         <v>7060</v>
       </c>
       <c r="B7060">
-        <v>7.384891953500177</v>
+        <v>7.384891953500176</v>
       </c>
     </row>
     <row r="7061" spans="1:2">
@@ -56839,7 +56839,7 @@
         <v>7062</v>
       </c>
       <c r="B7062">
-        <v>6.091628074095393</v>
+        <v>6.091628074095392</v>
       </c>
     </row>
     <row r="7063" spans="1:2">
@@ -56847,7 +56847,7 @@
         <v>7063</v>
       </c>
       <c r="B7063">
-        <v>0.8188756505444381</v>
+        <v>0.818875650544438</v>
       </c>
     </row>
     <row r="7064" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>69.93817959510478</v>
+        <v>69.93817959510477</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -56943,7 +56943,7 @@
         <v>7075</v>
       </c>
       <c r="B7075">
-        <v>60.36794482761855</v>
+        <v>60.36794482761854</v>
       </c>
     </row>
     <row r="7076" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>24.75893441714912</v>
+        <v>24.75893441714911</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57359,7 +57359,7 @@
         <v>7127</v>
       </c>
       <c r="B7127">
-        <v>36.95743025935029</v>
+        <v>36.95743025935028</v>
       </c>
     </row>
     <row r="7128" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>0.8585164392337717</v>
+        <v>0.8585164392337716</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57439,7 +57439,7 @@
         <v>7137</v>
       </c>
       <c r="B7137">
-        <v>4.044614790357494</v>
+        <v>4.044614790357493</v>
       </c>
     </row>
     <row r="7138" spans="1:2">
@@ -57479,7 +57479,7 @@
         <v>7142</v>
       </c>
       <c r="B7142">
-        <v>57.93281756738144</v>
+        <v>57.93281756738143</v>
       </c>
     </row>
     <row r="7143" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>4.158326353358096</v>
+        <v>4.158326353358095</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57647,7 +57647,7 @@
         <v>7163</v>
       </c>
       <c r="B7163">
-        <v>7.797506668831486</v>
+        <v>7.797506668831485</v>
       </c>
     </row>
     <row r="7164" spans="1:2">
@@ -57671,7 +57671,7 @@
         <v>7166</v>
       </c>
       <c r="B7166">
-        <v>24.4954342462887</v>
+        <v>24.49543424628869</v>
       </c>
     </row>
     <row r="7167" spans="1:2">
@@ -57879,7 +57879,7 @@
         <v>7192</v>
       </c>
       <c r="B7192">
-        <v>23.42411306446215</v>
+        <v>23.42411306446214</v>
       </c>
     </row>
     <row r="7193" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>0.4338125435576832</v>
+        <v>0.4338125435576831</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58055,7 +58055,7 @@
         <v>7214</v>
       </c>
       <c r="B7214">
-        <v>34.67001080259849</v>
+        <v>34.67001080259848</v>
       </c>
     </row>
     <row r="7215" spans="1:2">
@@ -58103,7 +58103,7 @@
         <v>7220</v>
       </c>
       <c r="B7220">
-        <v>28.18593130063169</v>
+        <v>28.18593130063168</v>
       </c>
     </row>
     <row r="7221" spans="1:2">
@@ -58135,7 +58135,7 @@
         <v>7224</v>
       </c>
       <c r="B7224">
-        <v>5.717171207997792</v>
+        <v>5.717171207997791</v>
       </c>
     </row>
     <row r="7225" spans="1:2">
@@ -58159,7 +58159,7 @@
         <v>7227</v>
       </c>
       <c r="B7227">
-        <v>1.628103402496145</v>
+        <v>1.628103402496144</v>
       </c>
     </row>
     <row r="7228" spans="1:2">
@@ -58335,7 +58335,7 @@
         <v>7249</v>
       </c>
       <c r="B7249">
-        <v>2.336705213323479</v>
+        <v>2.336705213323478</v>
       </c>
     </row>
     <row r="7250" spans="1:2">
@@ -58375,7 +58375,7 @@
         <v>7254</v>
       </c>
       <c r="B7254">
-        <v>0.6048136331958049</v>
+        <v>0.6048136331958048</v>
       </c>
     </row>
     <row r="7255" spans="1:2">
@@ -58415,7 +58415,7 @@
         <v>7259</v>
       </c>
       <c r="B7259">
-        <v>5.17721712636813</v>
+        <v>5.177217126368129</v>
       </c>
     </row>
     <row r="7260" spans="1:2">
@@ -58575,7 +58575,7 @@
         <v>7279</v>
       </c>
       <c r="B7279">
-        <v>0.1997343604105574</v>
+        <v>0.1997343604105573</v>
       </c>
     </row>
     <row r="7280" spans="1:2">
@@ -58695,7 +58695,7 @@
         <v>7294</v>
       </c>
       <c r="B7294">
-        <v>8.980780987426668</v>
+        <v>8.980780987426666</v>
       </c>
     </row>
     <row r="7295" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>7.283342838604021</v>
+        <v>7.28334283860402</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58911,7 +58911,7 @@
         <v>7321</v>
       </c>
       <c r="B7321">
-        <v>0.9415669101696238</v>
+        <v>0.9415669101696236</v>
       </c>
     </row>
     <row r="7322" spans="1:2">
@@ -59191,7 +59191,7 @@
         <v>7356</v>
       </c>
       <c r="B7356">
-        <v>9.328040861136497</v>
+        <v>9.328040861136492</v>
       </c>
     </row>
     <row r="7357" spans="1:2">
@@ -59239,7 +59239,7 @@
         <v>7362</v>
       </c>
       <c r="B7362">
-        <v>23.36787273214304</v>
+        <v>23.36787273214303</v>
       </c>
     </row>
     <row r="7363" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>7.177807957582071</v>
+        <v>7.17780795758207</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59311,7 +59311,7 @@
         <v>7371</v>
       </c>
       <c r="B7371">
-        <v>0.9639370225506444</v>
+        <v>0.9639370225506442</v>
       </c>
     </row>
     <row r="7372" spans="1:2">
@@ -59319,7 +59319,7 @@
         <v>7372</v>
       </c>
       <c r="B7372">
-        <v>0.7188358514973879</v>
+        <v>0.7188358514973878</v>
       </c>
     </row>
     <row r="7373" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>0.5437259058972341</v>
+        <v>0.543725905897234</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59335,7 +59335,7 @@
         <v>7374</v>
       </c>
       <c r="B7374">
-        <v>0.4346829645425074</v>
+        <v>0.4346829645425073</v>
       </c>
     </row>
     <row r="7375" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>0.4860905554340939</v>
+        <v>0.4860905554340938</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>2.575461396389717</v>
+        <v>2.575461396389716</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>1.400809227751952</v>
+        <v>1.400809227751951</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>5.305875312340461</v>
+        <v>5.30587531234046</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59623,7 +59623,7 @@
         <v>7410</v>
       </c>
       <c r="B7410">
-        <v>5.976773534044011</v>
+        <v>5.97677353404401</v>
       </c>
     </row>
     <row r="7411" spans="1:2">
@@ -59631,7 +59631,7 @@
         <v>7411</v>
       </c>
       <c r="B7411">
-        <v>29.65527226006421</v>
+        <v>29.6552722600642</v>
       </c>
     </row>
     <row r="7412" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>3.350241578457169</v>
+        <v>3.350241578457168</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -60159,7 +60159,7 @@
         <v>7477</v>
       </c>
       <c r="B7477">
-        <v>7.608036242336926</v>
+        <v>7.608036242336925</v>
       </c>
     </row>
     <row r="7478" spans="1:2">
@@ -60167,7 +60167,7 @@
         <v>7478</v>
       </c>
       <c r="B7478">
-        <v>5.655215990424784</v>
+        <v>5.655215990424783</v>
       </c>
     </row>
     <row r="7479" spans="1:2">
@@ -60263,7 +60263,7 @@
         <v>7490</v>
       </c>
       <c r="B7490">
-        <v>0.4734064408808309</v>
+        <v>0.4734064408808308</v>
       </c>
     </row>
     <row r="7491" spans="1:2">
@@ -60599,7 +60599,7 @@
         <v>7532</v>
       </c>
       <c r="B7532">
-        <v>0.7820542052470267</v>
+        <v>0.7820542052470266</v>
       </c>
     </row>
     <row r="7533" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>0.5457480960639974</v>
+        <v>0.5457480960639973</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60775,7 +60775,7 @@
         <v>7554</v>
       </c>
       <c r="B7554">
-        <v>0.523665193300865</v>
+        <v>0.5236651933008649</v>
       </c>
     </row>
     <row r="7555" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>0.1430391818394428</v>
+        <v>0.1430391818394427</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>0.1242037992557168</v>
+        <v>0.1242037992557167</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60863,7 +60863,7 @@
         <v>7565</v>
       </c>
       <c r="B7565">
-        <v>0.1139175919407809</v>
+        <v>0.1139175919407808</v>
       </c>
     </row>
     <row r="7566" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>0.1570154466021637</v>
+        <v>0.1570154466021636</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61119,7 +61119,7 @@
         <v>7597</v>
       </c>
       <c r="B7597">
-        <v>3.6184015788323</v>
+        <v>3.618401578832299</v>
       </c>
     </row>
     <row r="7598" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>0.7284427201447069</v>
+        <v>0.7284427201447068</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>0.1885434427992739</v>
+        <v>0.1885434427992738</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61335,7 +61335,7 @@
         <v>7624</v>
       </c>
       <c r="B7624">
-        <v>2.030530968523585</v>
+        <v>2.030530968523584</v>
       </c>
     </row>
     <row r="7625" spans="1:2">
@@ -61391,7 +61391,7 @@
         <v>7631</v>
       </c>
       <c r="B7631">
-        <v>0.8782664965291598</v>
+        <v>0.8782664965291597</v>
       </c>
     </row>
     <row r="7632" spans="1:2">
@@ -61535,7 +61535,7 @@
         <v>7649</v>
       </c>
       <c r="B7649">
-        <v>2.07100114825233</v>
+        <v>2.071001148252329</v>
       </c>
     </row>
     <row r="7650" spans="1:2">
@@ -61575,7 +61575,7 @@
         <v>7654</v>
       </c>
       <c r="B7654">
-        <v>4.415877182133687</v>
+        <v>4.415877182133686</v>
       </c>
     </row>
     <row r="7655" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>5.151426874965932</v>
+        <v>5.151426874965931</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -62063,7 +62063,7 @@
         <v>7715</v>
       </c>
       <c r="B7715">
-        <v>5.041056321806068</v>
+        <v>5.041056321806067</v>
       </c>
     </row>
     <row r="7716" spans="1:2">
@@ -62167,7 +62167,7 @@
         <v>7728</v>
       </c>
       <c r="B7728">
-        <v>2.343671511912459</v>
+        <v>2.343671511912458</v>
       </c>
     </row>
     <row r="7729" spans="1:2">
@@ -62199,7 +62199,7 @@
         <v>7732</v>
       </c>
       <c r="B7732">
-        <v>0.4131510353320583</v>
+        <v>0.4131510353320582</v>
       </c>
     </row>
     <row r="7733" spans="1:2">
@@ -62263,7 +62263,7 @@
         <v>7740</v>
       </c>
       <c r="B7740">
-        <v>0.8284063207217051</v>
+        <v>0.8284063207217049</v>
       </c>
     </row>
     <row r="7741" spans="1:2">
@@ -62327,7 +62327,7 @@
         <v>7748</v>
       </c>
       <c r="B7748">
-        <v>9.918198011688848</v>
+        <v>9.918198011688846</v>
       </c>
     </row>
     <row r="7749" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>0.7867111040513555</v>
+        <v>0.7867111040513554</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62415,7 +62415,7 @@
         <v>7759</v>
       </c>
       <c r="B7759">
-        <v>0.7696074782350795</v>
+        <v>0.7696074782350794</v>
       </c>
     </row>
     <row r="7760" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>8.87325322334182</v>
+        <v>8.873253223341818</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>8.17952476772655</v>
+        <v>8.179524767726548</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>0.9892056075040254</v>
+        <v>0.9892056075040252</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62727,7 +62727,7 @@
         <v>7798</v>
       </c>
       <c r="B7798">
-        <v>9.018938836660377</v>
+        <v>9.018938836660372</v>
       </c>
     </row>
     <row r="7799" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>3.374595781769927</v>
+        <v>3.374595781769926</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62799,7 +62799,7 @@
         <v>7807</v>
       </c>
       <c r="B7807">
-        <v>0.2668139250945594</v>
+        <v>0.2668139250945593</v>
       </c>
     </row>
     <row r="7808" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>0.6447943842899857</v>
+        <v>0.6447943842899856</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63183,7 +63183,7 @@
         <v>7855</v>
       </c>
       <c r="B7855">
-        <v>6.074981639099429</v>
+        <v>6.074981639099428</v>
       </c>
     </row>
     <row r="7856" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>33.67386234218858</v>
+        <v>33.67386234218857</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63239,7 +63239,7 @@
         <v>7862</v>
       </c>
       <c r="B7862">
-        <v>50.4574545842465</v>
+        <v>50.45745458424649</v>
       </c>
     </row>
     <row r="7863" spans="1:2">
@@ -63295,7 +63295,7 @@
         <v>7869</v>
       </c>
       <c r="B7869">
-        <v>43.72414747100209</v>
+        <v>43.72414747100208</v>
       </c>
     </row>
     <row r="7870" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>8.589208772671244</v>
+        <v>8.589208772671242</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>6.991297548577991</v>
+        <v>6.99129754857799</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63431,7 +63431,7 @@
         <v>7886</v>
       </c>
       <c r="B7886">
-        <v>8.7770380013493</v>
+        <v>8.777038001349299</v>
       </c>
     </row>
     <row r="7887" spans="1:2">
@@ -63463,7 +63463,7 @@
         <v>7890</v>
       </c>
       <c r="B7890">
-        <v>3.126892139893358</v>
+        <v>3.126892139893357</v>
       </c>
     </row>
     <row r="7891" spans="1:2">
@@ -63543,7 +63543,7 @@
         <v>7900</v>
       </c>
       <c r="B7900">
-        <v>0.5941898080443312</v>
+        <v>0.5941898080443311</v>
       </c>
     </row>
     <row r="7901" spans="1:2">
@@ -64055,7 +64055,7 @@
         <v>7964</v>
       </c>
       <c r="B7964">
-        <v>42.75378926199438</v>
+        <v>42.75378926199437</v>
       </c>
     </row>
     <row r="7965" spans="1:2">
@@ -64239,7 +64239,7 @@
         <v>7987</v>
       </c>
       <c r="B7987">
-        <v>42.07826051787998</v>
+        <v>42.07826051787997</v>
       </c>
     </row>
     <row r="7988" spans="1:2">
@@ -64271,7 +64271,7 @@
         <v>7991</v>
       </c>
       <c r="B7991">
-        <v>16.62548041670013</v>
+        <v>16.62548041670012</v>
       </c>
     </row>
     <row r="7992" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>5.463371688517067</v>
+        <v>5.463371688517066</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64319,7 +64319,7 @@
         <v>7997</v>
       </c>
       <c r="B7997">
-        <v>0.8397276549451929</v>
+        <v>0.8397276549451927</v>
       </c>
     </row>
     <row r="7998" spans="1:2">
@@ -64367,7 +64367,7 @@
         <v>8003</v>
       </c>
       <c r="B8003">
-        <v>3.742165478458986</v>
+        <v>3.742165478458985</v>
       </c>
     </row>
     <row r="8004" spans="1:2">
@@ -64383,7 +64383,7 @@
         <v>8005</v>
       </c>
       <c r="B8005">
-        <v>4.394805374453936</v>
+        <v>4.394805374453935</v>
       </c>
     </row>
     <row r="8006" spans="1:2">
@@ -64463,7 +64463,7 @@
         <v>8015</v>
       </c>
       <c r="B8015">
-        <v>3.468144057310628</v>
+        <v>3.468144057310627</v>
       </c>
     </row>
     <row r="8016" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>0.6530648490010088</v>
+        <v>0.6530648490010087</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64567,7 +64567,7 @@
         <v>8028</v>
       </c>
       <c r="B8028">
-        <v>4.980244081283839</v>
+        <v>4.980244081283838</v>
       </c>
     </row>
     <row r="8029" spans="1:2">
@@ -64599,7 +64599,7 @@
         <v>8032</v>
       </c>
       <c r="B8032">
-        <v>5.721537966473846</v>
+        <v>5.721537966473845</v>
       </c>
     </row>
     <row r="8033" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>7.176283988181032</v>
+        <v>7.176283988181031</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64831,7 +64831,7 @@
         <v>8061</v>
       </c>
       <c r="B8061">
-        <v>3.945761929017023</v>
+        <v>3.945761929017022</v>
       </c>
     </row>
     <row r="8062" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>0.1361200676876871</v>
+        <v>0.136120067687687</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -65031,7 +65031,7 @@
         <v>8086</v>
       </c>
       <c r="B8086">
-        <v>5.234600435738021</v>
+        <v>5.23460043573802</v>
       </c>
     </row>
     <row r="8087" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>0.1835213774807731</v>
+        <v>0.183521377480773</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65183,7 +65183,7 @@
         <v>8105</v>
       </c>
       <c r="B8105">
-        <v>0.5691937791569051</v>
+        <v>0.5691937791569049</v>
       </c>
     </row>
     <row r="8106" spans="1:2">
@@ -65247,7 +65247,7 @@
         <v>8113</v>
       </c>
       <c r="B8113">
-        <v>0.4596115870910414</v>
+        <v>0.4596115870910413</v>
       </c>
     </row>
     <row r="8114" spans="1:2">
@@ -65519,7 +65519,7 @@
         <v>8147</v>
       </c>
       <c r="B8147">
-        <v>0.8802798945647632</v>
+        <v>0.8802798945647631</v>
       </c>
     </row>
     <row r="8148" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>3.041344703708111</v>
+        <v>3.04134470370811</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>5.634378639575962</v>
+        <v>5.634378639575961</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65983,7 +65983,7 @@
         <v>8205</v>
       </c>
       <c r="B8205">
-        <v>0.1576947852697807</v>
+        <v>0.1576947852697806</v>
       </c>
     </row>
     <row r="8206" spans="1:2">
@@ -66583,7 +66583,7 @@
         <v>8280</v>
       </c>
       <c r="B8280">
-        <v>0.2272804004053759</v>
+        <v>0.2272804004053758</v>
       </c>
     </row>
     <row r="8281" spans="1:2">
@@ -67015,7 +67015,7 @@
         <v>8334</v>
       </c>
       <c r="B8334">
-        <v>0.0542172629392329</v>
+        <v>0.0542172629392328</v>
       </c>
     </row>
     <row r="8335" spans="1:2">
@@ -67055,7 +67055,7 @@
         <v>8339</v>
       </c>
       <c r="B8339">
-        <v>0.2544419311974707</v>
+        <v>0.2544419311974706</v>
       </c>
     </row>
     <row r="8340" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>1.857460797352514</v>
+        <v>1.857460797352513</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>4.782391823083565</v>
+        <v>4.782391823083564</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>7.039243970502987</v>
+        <v>7.039243970502986</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67087,7 +67087,7 @@
         <v>8343</v>
       </c>
       <c r="B8343">
-        <v>6.199536830530501</v>
+        <v>6.1995368305305</v>
       </c>
     </row>
     <row r="8344" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>0.3364983051701835</v>
+        <v>0.3364983051701834</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>4.017154034034927</v>
+        <v>4.017154034034926</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>0.4411422502346034</v>
+        <v>0.4411422502346033</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67839,7 +67839,7 @@
         <v>8437</v>
       </c>
       <c r="B8437">
-        <v>7.967370642839601</v>
+        <v>7.9673706428396</v>
       </c>
     </row>
     <row r="8438" spans="1:2">
@@ -68063,7 +68063,7 @@
         <v>8465</v>
       </c>
       <c r="B8465">
-        <v>0.1882576985365791</v>
+        <v>0.188257698536579</v>
       </c>
     </row>
     <row r="8466" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>0.6440060231959867</v>
+        <v>0.6440060231959865</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -69079,7 +69079,7 @@
         <v>8592</v>
       </c>
       <c r="B8592">
-        <v>0.1333103956400408</v>
+        <v>0.1333103956400407</v>
       </c>
     </row>
     <row r="8593" spans="1:2">
@@ -69191,7 +69191,7 @@
         <v>8606</v>
       </c>
       <c r="B8606">
-        <v>5.728600978505584</v>
+        <v>5.728600978505583</v>
       </c>
     </row>
     <row r="8607" spans="1:2">
@@ -69271,7 +69271,7 @@
         <v>8616</v>
       </c>
       <c r="B8616">
-        <v>0.1298234364220481</v>
+        <v>0.129823436422048</v>
       </c>
     </row>
     <row r="8617" spans="1:2">
@@ -69559,7 +69559,7 @@
         <v>8652</v>
       </c>
       <c r="B8652">
-        <v>2.720487599871284</v>
+        <v>2.720487599871283</v>
       </c>
     </row>
     <row r="8653" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>4.740101672204733</v>
+        <v>4.740101672204732</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69575,7 +69575,7 @@
         <v>8654</v>
       </c>
       <c r="B8654">
-        <v>5.896354841035339</v>
+        <v>5.896354841035338</v>
       </c>
     </row>
     <row r="8655" spans="1:2">
@@ -69823,7 +69823,7 @@
         <v>8685</v>
       </c>
       <c r="B8685">
-        <v>2.627458060069013</v>
+        <v>2.627458060069012</v>
       </c>
     </row>
     <row r="8686" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>0.502610969883434</v>
+        <v>0.5026109698834339</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>0.2815073346888846</v>
+        <v>0.2815073346888845</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>0.2458655003220851</v>
+        <v>0.245865500322085</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>0.1147258818654089</v>
+        <v>0.1147258818654088</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>0.5814089800483099</v>
+        <v>0.5814089800483098</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>6.268056839369523</v>
+        <v>6.268056839369522</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70343,7 +70343,7 @@
         <v>8750</v>
       </c>
       <c r="B8750">
-        <v>0.4606637121198356</v>
+        <v>0.4606637121198355</v>
       </c>
     </row>
     <row r="8751" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>0.7639863757135548</v>
+        <v>0.7639863757135547</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
